--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="12045" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="12045" windowHeight="5970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VP16-JP" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>:</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Booster SP: Destiny Soldiers</t>
+  </si>
+  <si>
+    <t>Magical Something</t>
+  </si>
+  <si>
+    <t>Abyss Actor - Pretty Heroine</t>
   </si>
 </sst>
 </file>
@@ -162,10 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -575,8 +582,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B2">
-        <v>100909081</v>
+        <v>100909000</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -587,7 +597,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>100909082</v>
+        <v>100909081</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -598,21 +608,18 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4">
+        <v>100909082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
         <v>100909083</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>100909084</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -623,21 +630,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>100909084</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>100909085</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>100909086</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -648,7 +658,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>100909087</v>
+        <v>100909086</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -659,7 +669,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>100909088</v>
+        <v>100909087</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -670,17 +680,29 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10">
+        <v>100909088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11">
         <v>100909089</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -688,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -956,6 +978,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
       <c r="B22">
         <v>100405021</v>
       </c>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>:</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Abyss Actor - Pretty Heroine</t>
+  </si>
+  <si>
+    <t>Abyss Actor - Extra</t>
+  </si>
+  <si>
+    <t>Casting out the Darklords</t>
+  </si>
+  <si>
+    <t>Darklords Falling from Grace</t>
+  </si>
+  <si>
+    <t>Abyss Actor - Wild Hope</t>
+  </si>
+  <si>
+    <t>Abyss Script - Fantasy Magic</t>
+  </si>
+  <si>
+    <t>Abyss Script - Rise of the Dark Ruler</t>
   </si>
 </sst>
 </file>
@@ -708,15 +726,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
@@ -967,6 +985,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
       <c r="B21">
         <v>100405020</v>
       </c>
@@ -992,6 +1013,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
       <c r="B23">
         <v>100405022</v>
       </c>
@@ -1003,6 +1027,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
       <c r="B24">
         <v>100405023</v>
       </c>
@@ -1050,6 +1077,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
       <c r="B28">
         <v>100405027</v>
       </c>
@@ -1110,6 +1140,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>100405032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>100405033</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>100405034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>100405035</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>100405036</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>1</v>
       </c>
     </row>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -10,13 +10,14 @@
     <sheet name="VP16-JP" sheetId="2" r:id="rId1"/>
     <sheet name="TDIL-EN" sheetId="4" r:id="rId2"/>
     <sheet name="SPDS-JP" sheetId="5" r:id="rId3"/>
+    <sheet name="SR03-JP" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>:</t>
   </si>
@@ -112,6 +113,21 @@
   </si>
   <si>
     <t>Abyss Script - Rise of the Dark Ruler</t>
+  </si>
+  <si>
+    <t>Structure Deck R: Machine Dragon Re-Volt</t>
+  </si>
+  <si>
+    <t>Ancient Gear Gadget</t>
+  </si>
+  <si>
+    <t>Ancient Gear Reactor Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Gear Catapult</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -186,11 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +512,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -580,7 +597,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -729,7 +746,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1208,4 +1225,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>100303000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>100303001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>100303021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t>:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -745,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -847,6 +850,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
       <c r="B8">
         <v>100405007</v>
       </c>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>:</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>D3</t>
+  </si>
+  <si>
+    <t>Ancient Gear Token</t>
   </si>
 </sst>
 </file>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1235,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1299,6 +1302,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>100303121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
   <si>
     <t>:</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Ancient Gear Token</t>
+  </si>
+  <si>
+    <t>Darklord Mastema</t>
+  </si>
+  <si>
+    <t>Altar of the Darklords</t>
+  </si>
+  <si>
+    <t>Darklords' Temptation</t>
   </si>
 </sst>
 </file>
@@ -749,10 +758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1170,6 +1179,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
       <c r="B33">
         <v>100405032</v>
       </c>
@@ -1206,6 +1218,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
       <c r="B36">
         <v>100405035</v>
       </c>
@@ -1227,6 +1242,53 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>100405037</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>100405038</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>100405039</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>100405040</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>1</v>
       </c>
     </row>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="12045" windowHeight="5970" activeTab="2"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VP16-JP" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>:</t>
   </si>
@@ -143,6 +143,39 @@
   </si>
   <si>
     <t>Darklords' Temptation</t>
+  </si>
+  <si>
+    <t>Ninjitsu Art Notebook</t>
+  </si>
+  <si>
+    <t>Subterror Nemesis Warrior</t>
+  </si>
+  <si>
+    <t>Subterror Behemoth Umastryx</t>
+  </si>
+  <si>
+    <t>SPYRAL Super Agent</t>
+  </si>
+  <si>
+    <t>SPYRAL Quik-Fix</t>
+  </si>
+  <si>
+    <t>SPYRAL GEAR - Drone</t>
+  </si>
+  <si>
+    <t>SPYRAL GEAR - Big Red</t>
+  </si>
+  <si>
+    <t>Abyss Actor - Sassy Rookie</t>
+  </si>
+  <si>
+    <t>Abyss Script - Abode of the Fire Dragon</t>
+  </si>
+  <si>
+    <t>Abyss Stage Prop - Escape Stage Coach</t>
+  </si>
+  <si>
+    <t>Entering the Abyss Actor Dressing Room</t>
   </si>
 </sst>
 </file>
@@ -612,7 +645,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -646,6 +679,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
       <c r="B3">
         <v>100909081</v>
       </c>
@@ -657,6 +693,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
       <c r="B4">
         <v>100909082</v>
       </c>
@@ -668,6 +707,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5">
         <v>100909083</v>
       </c>
@@ -707,6 +749,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
       <c r="B8">
         <v>100909086</v>
       </c>
@@ -718,6 +763,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
       <c r="B9">
         <v>100909087</v>
       </c>
@@ -729,6 +777,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
       <c r="B10">
         <v>100909088</v>
       </c>
@@ -740,6 +791,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
       <c r="B11">
         <v>100909089</v>
       </c>
@@ -758,15 +812,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.23046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
@@ -891,7 +945,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>100405009</v>
+        <v>100405010</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -902,7 +956,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>100405010</v>
+        <v>100405011</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -913,7 +967,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>100405011</v>
+        <v>100405013</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -924,7 +978,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>100405012</v>
+        <v>100405015</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -934,8 +988,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
       <c r="B14">
-        <v>100405013</v>
+        <v>100405016</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -945,8 +1002,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
       <c r="B15">
-        <v>100405014</v>
+        <v>100405017</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -956,8 +1016,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
       <c r="B16">
-        <v>100405015</v>
+        <v>100405018</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -968,10 +1031,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>100405016</v>
+        <v>100405019</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -982,10 +1045,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>100405017</v>
+        <v>100405020</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -996,10 +1059,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>100405018</v>
+        <v>100405021</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -1009,8 +1072,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
       <c r="B20">
-        <v>100405019</v>
+        <v>100405022</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1021,10 +1087,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>100405020</v>
+        <v>100405023</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -1035,10 +1101,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>100405021</v>
+        <v>100405024</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -1049,10 +1115,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>100405022</v>
+        <v>100405025</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -1063,10 +1129,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>100405023</v>
+        <v>100405026</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -1077,10 +1143,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>100405024</v>
+        <v>100405027</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -1090,8 +1156,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
       <c r="B26">
-        <v>100405025</v>
+        <v>100405028</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -1101,8 +1170,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
       <c r="B27">
-        <v>100405026</v>
+        <v>100405029</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -1113,10 +1185,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>100405027</v>
+        <v>100405030</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -1126,8 +1198,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
       <c r="B29">
-        <v>100405028</v>
+        <v>100405031</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -1138,10 +1213,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>100405029</v>
+        <v>100405032</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1151,11 +1226,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
       <c r="B31">
-        <v>100405030</v>
+        <v>100405033</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -1166,10 +1238,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>100405031</v>
+        <v>100405034</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -1180,10 +1252,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>100405032</v>
+        <v>100405035</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1193,8 +1265,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
       <c r="B34">
-        <v>100405033</v>
+        <v>100405036</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1205,10 +1280,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>100405034</v>
+        <v>100405037</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1218,11 +1293,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
       <c r="B36">
-        <v>100405035</v>
+        <v>100405038</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1232,11 +1304,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
       <c r="B37">
-        <v>100405036</v>
+        <v>100405039</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -1246,49 +1315,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
       <c r="B38">
-        <v>100405037</v>
+        <v>100405040</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>100405038</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>100405039</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>100405040</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
         <v>1</v>
       </c>
     </row>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="2"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="VP16-JP" sheetId="2" r:id="rId1"/>
-    <sheet name="TDIL-EN" sheetId="4" r:id="rId2"/>
-    <sheet name="SPDS-JP" sheetId="5" r:id="rId3"/>
-    <sheet name="SR03-JP" sheetId="6" r:id="rId4"/>
+    <sheet name="TDIL-EN" sheetId="4" r:id="rId1"/>
+    <sheet name="SPDS-JP" sheetId="5" r:id="rId2"/>
+    <sheet name="SR03-JP" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>:</t>
   </si>
@@ -71,21 +70,6 @@
   </si>
   <si>
     <t>The Dark Illusion (TCG)</t>
-  </si>
-  <si>
-    <t>20th Rival Collection</t>
-  </si>
-  <si>
-    <t>Destiny HERO - Deadlyguy</t>
-  </si>
-  <si>
-    <t>Red Rising Dragon</t>
-  </si>
-  <si>
-    <t>Galaxy-Eyes Cipher Blade Dragon</t>
-  </si>
-  <si>
-    <t>Abyss Actor - Dandy Supporting Actor</t>
   </si>
   <si>
     <t>Booster SP: Destiny Soldiers</t>
@@ -557,94 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2">
-        <v>42572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>100208001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>100208002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>100208003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>100208004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -666,7 +565,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>100909000</v>
@@ -680,7 +579,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>100909081</v>
@@ -694,7 +593,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>100909082</v>
@@ -708,7 +607,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>100909083</v>
@@ -750,7 +649,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>100909086</v>
@@ -764,7 +663,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>100909087</v>
@@ -778,7 +677,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>100909088</v>
@@ -792,7 +691,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>100909089</v>
@@ -810,11 +709,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2">
         <v>42588</v>
@@ -917,7 +816,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>100405007</v>
@@ -1031,7 +930,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>100405019</v>
@@ -1045,7 +944,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>100405020</v>
@@ -1059,7 +958,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>100405021</v>
@@ -1073,7 +972,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>100405022</v>
@@ -1087,7 +986,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>100405023</v>
@@ -1115,7 +1014,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>100405025</v>
@@ -1129,7 +1028,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>100405026</v>
@@ -1143,7 +1042,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>100405027</v>
@@ -1157,7 +1056,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>100405028</v>
@@ -1213,7 +1112,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>100405032</v>
@@ -1238,7 +1137,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>100405034</v>
@@ -1252,7 +1151,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>100405035</v>
@@ -1266,7 +1165,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>100405036</v>
@@ -1280,7 +1179,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>100405037</v>
@@ -1331,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1349,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4">
         <v>42637</v>
@@ -1357,7 +1256,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>100303000</v>
@@ -1366,12 +1265,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>100303001</v>
@@ -1380,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>100303021</v>
@@ -1394,12 +1293,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>100303121</v>
@@ -1408,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TDIL-EN" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>:</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Entering the Abyss Actor Dressing Room</t>
+  </si>
+  <si>
+    <t>Destiny HERO - Celestial</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -713,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -804,6 +807,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
       <c r="B7">
         <v>100405006</v>
       </c>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>:</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Destiny HERO - Celestial</t>
+  </si>
+  <si>
+    <t>Darklord Amdusias</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1131,6 +1134,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
       <c r="B31">
         <v>100405033</v>
       </c>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="TDIL-EN" sheetId="4" r:id="rId1"/>
-    <sheet name="SPDS-JP" sheetId="5" r:id="rId2"/>
-    <sheet name="SR03-JP" sheetId="6" r:id="rId3"/>
+    <sheet name="DRL3-EN" sheetId="7" r:id="rId1"/>
+    <sheet name="CT13-EN" sheetId="8" r:id="rId2"/>
+    <sheet name="DP17-EN" sheetId="9" r:id="rId3"/>
+    <sheet name="SR03-JP" sheetId="6" r:id="rId4"/>
+    <sheet name="LDK2-EN" sheetId="10" r:id="rId5"/>
+    <sheet name="SPDS-JP" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>:</t>
   </si>
@@ -24,12 +27,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>Subterror Behemoth Stalagmo</t>
-  </si>
-  <si>
-    <t>The Hidden City</t>
-  </si>
-  <si>
     <t>Destiny HERO - Drillguy</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
     <t>Darklord Tezcatlipoca</t>
   </si>
   <si>
-    <t>The Dark Illusion (TCG)</t>
-  </si>
-  <si>
-    <t>Booster SP: Destiny Soldiers</t>
-  </si>
-  <si>
-    <t>Magical Something</t>
-  </si>
-  <si>
     <t>Abyss Actor - Pretty Heroine</t>
   </si>
   <si>
@@ -129,27 +117,6 @@
     <t>Darklords' Temptation</t>
   </si>
   <si>
-    <t>Ninjitsu Art Notebook</t>
-  </si>
-  <si>
-    <t>Subterror Nemesis Warrior</t>
-  </si>
-  <si>
-    <t>Subterror Behemoth Umastryx</t>
-  </si>
-  <si>
-    <t>SPYRAL Super Agent</t>
-  </si>
-  <si>
-    <t>SPYRAL Quik-Fix</t>
-  </si>
-  <si>
-    <t>SPYRAL GEAR - Drone</t>
-  </si>
-  <si>
-    <t>SPYRAL GEAR - Big Red</t>
-  </si>
-  <si>
     <t>Abyss Actor - Sassy Rookie</t>
   </si>
   <si>
@@ -166,12 +133,213 @@
   </si>
   <si>
     <t>Darklord Amdusias</t>
+  </si>
+  <si>
+    <t>Dragons of Legend: Unleashed</t>
+  </si>
+  <si>
+    <t>Odd-Eyes Mirage Dragon</t>
+  </si>
+  <si>
+    <t>Performapal Uni</t>
+  </si>
+  <si>
+    <t>Performapal Corn</t>
+  </si>
+  <si>
+    <t>Raidraptor - Napalm Dragonius</t>
+  </si>
+  <si>
+    <t>Raidraptor - Blade Burner Falcon</t>
+  </si>
+  <si>
+    <t>The Tripper Mercury</t>
+  </si>
+  <si>
+    <t>The Blazing Mars</t>
+  </si>
+  <si>
+    <t>The Grand Jupiter</t>
+  </si>
+  <si>
+    <t>The Despair Uranus</t>
+  </si>
+  <si>
+    <t>The Suppression Pluto</t>
+  </si>
+  <si>
+    <t>Cyber Petit Angel</t>
+  </si>
+  <si>
+    <t>Cyber Angel - Benten</t>
+  </si>
+  <si>
+    <t>Cyber Angel - Idaten</t>
+  </si>
+  <si>
+    <t>Cyber Angel - Dakini</t>
+  </si>
+  <si>
+    <t>Machine Angel Ritual</t>
+  </si>
+  <si>
+    <t>Ritual Sanctuary</t>
+  </si>
+  <si>
+    <t>Red Nova</t>
+  </si>
+  <si>
+    <t>Zushin the Sleeping Giant</t>
+  </si>
+  <si>
+    <t>Hand-Holding Genie</t>
+  </si>
+  <si>
+    <t>Scrum Force</t>
+  </si>
+  <si>
+    <t>Number 100: Numeron Dragon</t>
+  </si>
+  <si>
+    <t>Number 45: Crumble Logos</t>
+  </si>
+  <si>
+    <t>Number 51: Finish Hold the Amazing</t>
+  </si>
+  <si>
+    <t>Number 59: Back the Cook</t>
+  </si>
+  <si>
+    <t>Number 78: Number Archive</t>
+  </si>
+  <si>
+    <t>Number 98: Dystopia</t>
+  </si>
+  <si>
+    <t>Cipher Wing</t>
+  </si>
+  <si>
+    <t>Galaxy-Eyes Cipher Dragon</t>
+  </si>
+  <si>
+    <t>Galaxy Stealth Dragon</t>
+  </si>
+  <si>
+    <t>Cardian - Matsu</t>
+  </si>
+  <si>
+    <t>Cardian - Susuki</t>
+  </si>
+  <si>
+    <t>Cardian - Yanagi</t>
+  </si>
+  <si>
+    <t>Cardian - Kiri</t>
+  </si>
+  <si>
+    <t>Cardian - Matsu ni Tsuru</t>
+  </si>
+  <si>
+    <t>Cardian - Susuki ni Tsuki</t>
+  </si>
+  <si>
+    <t>Cardian - Yanagi ni Ono no Michikaze</t>
+  </si>
+  <si>
+    <t>Cardian - Kiri ni Houou</t>
+  </si>
+  <si>
+    <t>Cardian - Ameshikou</t>
+  </si>
+  <si>
+    <t>Hana Awase</t>
+  </si>
+  <si>
+    <t>2016 Mega-Tins</t>
+  </si>
+  <si>
+    <t>D/D/D Flame King Genghis</t>
+  </si>
+  <si>
+    <t>Aether, the Evil Empowering Dragon</t>
+  </si>
+  <si>
+    <t>D/D/D Gust King Alexander</t>
+  </si>
+  <si>
+    <t>Dragonox, the Empowered Warrior</t>
+  </si>
+  <si>
+    <t>Destiny Soldiers</t>
+  </si>
+  <si>
+    <t>Duelist Pack: Rivals of the Pharaoh</t>
+  </si>
+  <si>
+    <t>Silent Swordsman</t>
+  </si>
+  <si>
+    <t>Silent Magician</t>
+  </si>
+  <si>
+    <t>Silent Sword</t>
+  </si>
+  <si>
+    <t>Silent Burning</t>
+  </si>
+  <si>
+    <t>Magnet Reverse</t>
+  </si>
+  <si>
+    <t>Magnet Force</t>
+  </si>
+  <si>
+    <t>Neutron Blast</t>
+  </si>
+  <si>
+    <t>Lullaby of Obedience</t>
+  </si>
+  <si>
+    <t>Tribute Burial</t>
+  </si>
+  <si>
+    <t>Dark Sanctuary</t>
+  </si>
+  <si>
+    <t>Number 24: Dragon Nosferatu Dragulas</t>
+  </si>
+  <si>
+    <t>Red Nova Dragon</t>
+  </si>
+  <si>
+    <t>Legendary Decks II</t>
+  </si>
+  <si>
+    <t>Obliterate!!!</t>
+  </si>
+  <si>
+    <t>The Legendary Exodia Incarnate</t>
+  </si>
+  <si>
+    <t>Ties of the Brethren</t>
+  </si>
+  <si>
+    <t>Dark Burning Attack</t>
+  </si>
+  <si>
+    <t>Dark Burning Magic</t>
+  </si>
+  <si>
+    <t>Eternal Soul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
@@ -202,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,16 +404,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,166 +728,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>3629090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>3912064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>7714344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>15033525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>16024176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>16255173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>16802689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>17141718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>18963306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>20920083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>21142671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>24413299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>29085954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>29208536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>32588805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>33103459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>39618799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>39996157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>42291297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>43413875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>54135423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>54358015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>55470553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>56292140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>57314798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>60508057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>67547370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>67754901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>76103404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>77235086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>78785392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>80630522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>81752019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>81974607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>82697249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>89818984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38">
+        <v>93713837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>94535485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>95658967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>96592102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>97489701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6">
+        <v>42615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>74583607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>28865322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>987311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>92870717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>15180041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>16625614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>17841166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>18563744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>39238953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>41175645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>43845801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>44968459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>80230510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>80352158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
-        <v>42587</v>
+        <v>42637</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>100909000</v>
+        <v>100303000</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>100909081</v>
+        <v>100303001</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>100909082</v>
+        <v>100303021</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>100909083</v>
+        <v>100303121</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>100909084</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>100909085</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>100909086</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>100909087</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>100909088</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>100909089</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -715,33 +1334,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>64043465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>58604027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>40450317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>49702428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>75190122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>48680970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.23046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2">
-        <v>42588</v>
+        <v>83</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>100405001</v>
@@ -749,13 +1444,16 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>91691605</v>
+      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>100405002</v>
@@ -763,13 +1461,16 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>37780349</v>
+      </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>100405003</v>
@@ -777,13 +1478,16 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>64184058</v>
+      </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>100405004</v>
@@ -791,13 +1495,16 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>90579153</v>
+      </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>100405005</v>
@@ -805,13 +1512,16 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>26964762</v>
+      </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>100405006</v>
@@ -819,13 +1529,16 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>63362460</v>
+      </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>100405007</v>
@@ -833,63 +1546,93 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>99357565</v>
+      </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>100405016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>52240819</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>100405101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>100405010</v>
+        <v>100405017</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>99634927</v>
+      </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
       <c r="B11">
-        <v>100405011</v>
+        <v>100405018</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>25629622</v>
+      </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
       <c r="B12">
-        <v>100405013</v>
+        <v>100405019</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>51028231</v>
+      </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
       <c r="B13">
-        <v>100405015</v>
+        <v>100405020</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
+      </c>
+      <c r="D13">
+        <v>88412339</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -897,13 +1640,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>100405016</v>
+        <v>100405021</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
+      </c>
+      <c r="D14">
+        <v>24907044</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -911,13 +1657,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>100405017</v>
+        <v>100405022</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
+      </c>
+      <c r="D15">
+        <v>51391183</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -925,404 +1674,281 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>100405023</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>87390798</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>100405024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>23784496</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>100405025</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>50179591</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>100405026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>86578200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100405027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>13662809</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>100405028</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>59057953</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>100405018</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>100405019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>100405020</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>100405021</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>100405022</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>100405023</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>100405029</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>25451652</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>100405024</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
       <c r="B23">
-        <v>100405025</v>
+        <v>100405030</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>52840267</v>
+      </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>100405026</v>
+        <v>100405031</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>88234365</v>
+      </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>100405027</v>
+        <v>100405032</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>25339070</v>
+      </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>100405028</v>
+        <v>100405033</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>51728779</v>
+      </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>100405029</v>
+        <v>100405034</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>87112784</v>
+      </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>100405030</v>
+        <v>100405035</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>14517422</v>
+      </c>
       <c r="E28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>100405031</v>
+        <v>100405036</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>50501121</v>
+      </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>100405032</v>
+        <v>100405037</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>87990236</v>
+      </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>100405033</v>
+        <v>100405101</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>26841274</v>
+      </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>100405034</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>100405035</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>100405036</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>100405037</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>100405038</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>100405039</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>100405040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4">
-        <v>42637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>100303000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>100303001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>100303021</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>100303121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState ref="A1:E31">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="5"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DRL3-EN" sheetId="7" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="SR03-JP" sheetId="6" r:id="rId4"/>
     <sheet name="LDK2-EN" sheetId="10" r:id="rId5"/>
     <sheet name="SPDS-JP" sheetId="5" r:id="rId6"/>
+    <sheet name="RATE-JP" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="115">
   <si>
     <t>:</t>
   </si>
@@ -331,6 +332,39 @@
   </si>
   <si>
     <t>Eternal Soul</t>
+  </si>
+  <si>
+    <t>Ancient Gear Hydra</t>
+  </si>
+  <si>
+    <t>Ancient Gear Wyvern</t>
+  </si>
+  <si>
+    <t>Raging Tempest</t>
+  </si>
+  <si>
+    <t>Descend Dragon Magician</t>
+  </si>
+  <si>
+    <t>Speedroid OMK Gum</t>
+  </si>
+  <si>
+    <t>Wind Witch - Snow Bell</t>
+  </si>
+  <si>
+    <t>Cipher Stranger</t>
+  </si>
+  <si>
+    <t>Brave-Eyes Pendulum Dragon</t>
+  </si>
+  <si>
+    <t>Wind Witch - Winter Bell</t>
+  </si>
+  <si>
+    <t>Neo Galaxy-Eyes Cipher Dragon</t>
+  </si>
+  <si>
+    <t>Rank-Up-Magic Cipher Ascension</t>
   </si>
 </sst>
 </file>
@@ -338,7 +372,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -420,11 +454,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1250,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1302,10 +1336,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>100303021</v>
+        <v>100303002</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1316,15 +1350,43 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>100303003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>100303021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>100303121</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1413,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1952,4 +2014,718 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>100911001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>100911008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>100911039</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44">
+        <v>100911043</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="118">
   <si>
     <t>:</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>Rank-Up-Magic Cipher Ascension</t>
+  </si>
+  <si>
+    <t>Speedroid Bamboo Horse</t>
+  </si>
+  <si>
+    <t>Wind Witch - Ice Bell</t>
+  </si>
+  <si>
+    <t>Cipher Spectrum</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2056,6 +2065,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>100911002</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -2064,6 +2076,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>100911003</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2072,6 +2087,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>100911004</v>
+      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2083,6 +2101,9 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
+      <c r="B6">
+        <v>100911005</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -2091,6 +2112,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7">
+        <v>100911006</v>
+      </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -2099,6 +2126,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>100911007</v>
+      </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -2121,6 +2154,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>100911009</v>
+      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -2129,6 +2165,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>100911010</v>
+      </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -2140,6 +2179,9 @@
       <c r="A12" t="s">
         <v>110</v>
       </c>
+      <c r="B12">
+        <v>100911011</v>
+      </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -2148,6 +2190,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>100911012</v>
+      </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -2156,6 +2201,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>100911013</v>
+      </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -2164,6 +2212,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>100911014</v>
+      </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -2172,6 +2223,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>100911015</v>
+      </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2233,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>100911016</v>
+      </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2244,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>100911017</v>
+      </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2255,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>100911018</v>
+      </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2266,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>100911019</v>
+      </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2277,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>100911020</v>
+      </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2288,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>100911021</v>
+      </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2299,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>100911022</v>
+      </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2310,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>100911023</v>
+      </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2321,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>100911024</v>
+      </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2332,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>100911025</v>
+      </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2343,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>100911026</v>
+      </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2354,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>100911027</v>
+      </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2365,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>100911028</v>
+      </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2376,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>100911029</v>
+      </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2387,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>100911030</v>
+      </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2398,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>100911031</v>
+      </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -2308,6 +2410,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>100911032</v>
+      </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -2316,6 +2421,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>100911033</v>
+      </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -2324,6 +2432,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>100911034</v>
+      </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -2332,6 +2443,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>100911035</v>
+      </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -2340,6 +2454,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>100911036</v>
+      </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -2348,6 +2465,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>100911037</v>
+      </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -2356,6 +2476,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>100911038</v>
+      </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -2378,6 +2501,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>100911040</v>
+      </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -2386,6 +2512,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>100911041</v>
+      </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -2394,6 +2523,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>100911042</v>
+      </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -2416,6 +2548,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>100911044</v>
+      </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -2424,6 +2559,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>100911045</v>
+      </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -2432,6 +2570,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>100911046</v>
+      </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
@@ -2440,6 +2581,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>100911047</v>
+      </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -2448,6 +2592,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>100911048</v>
+      </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -2459,6 +2606,9 @@
       <c r="A50" t="s">
         <v>113</v>
       </c>
+      <c r="B50">
+        <v>100911049</v>
+      </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -2467,6 +2617,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>100911050</v>
+      </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -2475,6 +2628,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>100911051</v>
+      </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -2483,6 +2639,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>100911052</v>
+      </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -2491,6 +2650,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>100911053</v>
+      </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -2499,6 +2661,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>100911054</v>
+      </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -2507,6 +2672,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>100911055</v>
+      </c>
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -2518,6 +2686,9 @@
       <c r="A57" t="s">
         <v>114</v>
       </c>
+      <c r="B57">
+        <v>100911056</v>
+      </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -2526,6 +2697,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>100911057</v>
+      </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -2534,6 +2708,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>100911058</v>
+      </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -2542,6 +2719,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>100911059</v>
+      </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -2550,6 +2730,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>100911060</v>
+      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -2558,6 +2741,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>100911061</v>
+      </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -2566,6 +2752,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>100911062</v>
+      </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -2574,6 +2763,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>100911063</v>
+      </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2773,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>100911064</v>
+      </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2784,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>100911065</v>
+      </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2795,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>100911066</v>
+      </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2806,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>100911067</v>
+      </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2817,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>100911068</v>
+      </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2828,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70">
+        <v>100911069</v>
+      </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2842,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>100911070</v>
+      </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2853,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>100911071</v>
+      </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2864,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>100911072</v>
+      </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2875,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>100911073</v>
+      </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2886,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>100911074</v>
+      </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2897,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>100911075</v>
+      </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2908,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>100911076</v>
+      </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2919,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>100911077</v>
+      </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2930,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>100911078</v>
+      </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2941,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>100911079</v>
+      </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -2709,19 +2952,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>100911080</v>
+      </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
         <v>26</v>
       </c>
     </row>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="6"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="LDK2-EN" sheetId="10" r:id="rId1"/>
-    <sheet name="SDMY-EN" sheetId="13" r:id="rId2"/>
-    <sheet name="SDKS-EN" sheetId="14" r:id="rId3"/>
-    <sheet name="INOV-EN" sheetId="15" r:id="rId4"/>
-    <sheet name="SPDS-EN" sheetId="5" r:id="rId5"/>
-    <sheet name="SDPD-EN" sheetId="16" r:id="rId6"/>
-    <sheet name="RATE-JP" sheetId="11" r:id="rId7"/>
+    <sheet name="RATE-JP" sheetId="11" r:id="rId2"/>
+    <sheet name="SDMY-EN" sheetId="13" r:id="rId3"/>
+    <sheet name="SDKS-EN" sheetId="14" r:id="rId4"/>
+    <sheet name="INOV-EN" sheetId="15" r:id="rId5"/>
+    <sheet name="SPFE-JP" sheetId="17" r:id="rId6"/>
+    <sheet name="SPDS-EN" sheetId="5" r:id="rId7"/>
+    <sheet name="SDPD-EN" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
   <si>
     <t>:</t>
   </si>
@@ -650,6 +651,123 @@
   </si>
   <si>
     <t>Juunishishi no Hougou</t>
+  </si>
+  <si>
+    <t>Performapal Dag Daggerman</t>
+  </si>
+  <si>
+    <t>Performapal Laughmaker</t>
+  </si>
+  <si>
+    <t>Parasite Fusioner</t>
+  </si>
+  <si>
+    <t>Flower Cardian Cherry Blossom with Curtain</t>
+  </si>
+  <si>
+    <t>True King Lithosazim, the Disaster</t>
+  </si>
+  <si>
+    <t>Esprit Bird - Shinobi Garasu</t>
+  </si>
+  <si>
+    <t>Esprit Bird - Den Hato</t>
+  </si>
+  <si>
+    <t>Envoy of Chaos</t>
+  </si>
+  <si>
+    <t>Tierra, Goddess of Rebirth</t>
+  </si>
+  <si>
+    <t>Apprentice Piper</t>
+  </si>
+  <si>
+    <t>All-Consuming Glutton</t>
+  </si>
+  <si>
+    <t>Wightprincess</t>
+  </si>
+  <si>
+    <t>Metrognome</t>
+  </si>
+  <si>
+    <t>Fairy Tail - Cinderella</t>
+  </si>
+  <si>
+    <t>Wind Witch - Crystal Bell</t>
+  </si>
+  <si>
+    <t>Flower Cardian Five Lights</t>
+  </si>
+  <si>
+    <t>Crystron Glyongandr</t>
+  </si>
+  <si>
+    <t>Homuragami - Shiranui</t>
+  </si>
+  <si>
+    <t>Heavy-Armored Train Iron Wolf‎‎</t>
+  </si>
+  <si>
+    <t>Card Regeneration</t>
+  </si>
+  <si>
+    <t>Super Soldier Origin</t>
+  </si>
+  <si>
+    <t>Ritual Beast's Return</t>
+  </si>
+  <si>
+    <t>Lawnmowing Next Door</t>
+  </si>
+  <si>
+    <t>Terminal World Next</t>
+  </si>
+  <si>
+    <t>Bewildering Wind</t>
+  </si>
+  <si>
+    <t>Universal Beginning</t>
+  </si>
+  <si>
+    <t>Majespecter Gust</t>
+  </si>
+  <si>
+    <t>Void Madness</t>
+  </si>
+  <si>
+    <t>Switch Hero</t>
+  </si>
+  <si>
+    <t>Booster SP: Fusion Enforcers</t>
+  </si>
+  <si>
+    <t>Predator Plant Sundew Kingii</t>
+  </si>
+  <si>
+    <t>Predator Plant Chimera Rafflesia</t>
+  </si>
+  <si>
+    <t>Greedy Venom Fusion Dragon</t>
+  </si>
+  <si>
+    <t>Predator Planter</t>
+  </si>
+  <si>
+    <t>Frightfur Kraken</t>
+  </si>
+  <si>
+    <t>Aleister the Eidolon Summoner</t>
+  </si>
+  <si>
+    <t>Raideen the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Elysion the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Eidolon Summoning Magic</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1119,10 +1239,1187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42651</v>
+      </c>
+      <c r="F1" s="10">
+        <v>42424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>100911001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>100911002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4">
+        <v>100911003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>100911004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>100911005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>100911006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>100911007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>100911008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10">
+        <v>100911009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11">
+        <v>100911010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>100911011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13">
+        <v>100911012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14">
+        <v>100911013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15">
+        <v>100911014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>100911015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>100911016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>100911017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>100911018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20">
+        <v>100911019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21">
+        <v>100911020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22">
+        <v>100911021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23">
+        <v>100911022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24">
+        <v>100911023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25">
+        <v>100911024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26">
+        <v>100911025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27">
+        <v>100911026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28">
+        <v>100911027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29">
+        <v>100911028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>100911029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>100911030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32">
+        <v>100911031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33">
+        <v>100911032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34">
+        <v>100911033</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35">
+        <v>100911034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36">
+        <v>100911035</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>100911036</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38">
+        <v>100911037</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>100911038</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>100911039</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41">
+        <v>100911040</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42">
+        <v>100911041</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43">
+        <v>100911042</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>100911043</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>100911044</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46">
+        <v>100911045</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47">
+        <v>100911046</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48">
+        <v>100911047</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49">
+        <v>100911048</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>100911049</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51">
+        <v>100911050</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52">
+        <v>100911051</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53">
+        <v>100911052</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54">
+        <v>100911053</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55">
+        <v>100911054</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56">
+        <v>100911055</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57">
+        <v>100911056</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58">
+        <v>100911057</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59">
+        <v>100911058</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60">
+        <v>100911059</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61">
+        <v>100911060</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62">
+        <v>100911061</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63">
+        <v>100911062</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64">
+        <v>100911063</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65">
+        <v>100911064</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66">
+        <v>100911065</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67">
+        <v>100911066</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68">
+        <v>100911067</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69">
+        <v>100911068</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70">
+        <v>100911069</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71">
+        <v>100911070</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72">
+        <v>100911071</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73">
+        <v>100911072</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74">
+        <v>100911073</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75">
+        <v>100911074</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76">
+        <v>100911075</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77">
+        <v>100911076</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78">
+        <v>100911077</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79">
+        <v>100911078</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80">
+        <v>100911079</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>100911080</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82">
+        <v>100911100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83">
+        <v>100911102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" tooltip="Ancient Gear Hunting Hound" display="http://yugioh.wikia.com/wiki/Ancient_Gear_Hunting_Hound"/>
+    <hyperlink ref="A15" r:id="rId2" tooltip="Juunishishi Molmorat" display="http://yugioh.wikia.com/wiki/Juunishishi_Molmorat"/>
+    <hyperlink ref="A16" r:id="rId3" tooltip="Juunishishi Rabbina" display="http://yugioh.wikia.com/wiki/Juunishishi_Rabbina"/>
+    <hyperlink ref="A17" r:id="rId4" tooltip="Juunishishi Viper" display="http://yugioh.wikia.com/wiki/Juunishishi_Viper"/>
+    <hyperlink ref="A18" r:id="rId5" tooltip="Juunishishi Thoroughblade" display="http://yugioh.wikia.com/wiki/Juunishishi_Thoroughblade"/>
+    <hyperlink ref="A19" r:id="rId6" tooltip="Juunishishi Ram" display="http://yugioh.wikia.com/wiki/Juunishishi_Ram"/>
+    <hyperlink ref="A21" r:id="rId7" tooltip="Crystron Rion" display="http://yugioh.wikia.com/wiki/Crystron_Rion"/>
+    <hyperlink ref="A22" r:id="rId8" tooltip="Crystron Sulphafnir" display="http://yugioh.wikia.com/wiki/Crystron_Sulphafnir"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1196,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1273,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
@@ -1700,12 +2997,530 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="1.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="6">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>100406001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>100406002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>100406003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>100406004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6">
+        <v>100406005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>100406006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>100406007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>100406008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10">
+        <v>100406009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11">
+        <v>100406010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12">
+        <v>100406011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>100406012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>100406013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>100406015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>100406016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>100406017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>100406019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19">
+        <v>100406020</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>100406021</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>100406022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>100406023</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>100406024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>100406026</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>100406027</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26">
+        <v>100406028</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>100406029</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>100406030</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>100406031</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>100406032</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31">
+        <v>100406033</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>100406034</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33">
+        <v>100406035</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>100406036</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>100406037</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>100406038</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>100406039</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>100406040</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>100406041</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>100406042</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>100406043</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>100406044</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>100406045</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1974,7 +3789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2074,1088 +3889,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="33.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4609375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2">
-        <v>42651</v>
-      </c>
-      <c r="F1" s="10">
-        <v>42424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>100911001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3">
-        <v>100911002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>100911003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>100911004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>100911005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>100911006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>100911007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>100911008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>100911009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11">
-        <v>100911010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>100911011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>100911012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14">
-        <v>100911013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15">
-        <v>100911014</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16">
-        <v>100911015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17">
-        <v>100911016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18">
-        <v>100911017</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19">
-        <v>100911018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>100911019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21">
-        <v>100911020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22">
-        <v>100911021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>100911022</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24">
-        <v>100911023</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>100911024</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>100911025</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27">
-        <v>100911026</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28">
-        <v>100911027</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>100911028</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>100911029</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31">
-        <v>100911030</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32">
-        <v>100911031</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>100911032</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>100911033</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>100911034</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>100911035</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37">
-        <v>100911036</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38">
-        <v>100911037</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39">
-        <v>100911038</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>100911039</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>100911040</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42">
-        <v>100911041</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43">
-        <v>100911042</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>100911043</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45">
-        <v>100911044</v>
-      </c>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>100911045</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <v>100911046</v>
-      </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B48">
-        <v>100911047</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49">
-        <v>100911048</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>100911049</v>
-      </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>100911050</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52">
-        <v>100911051</v>
-      </c>
-      <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53">
-        <v>100911052</v>
-      </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54">
-        <v>100911053</v>
-      </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55">
-        <v>100911054</v>
-      </c>
-      <c r="C55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56">
-        <v>100911055</v>
-      </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57">
-        <v>100911056</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>100911057</v>
-      </c>
-      <c r="C58" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>100911058</v>
-      </c>
-      <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60">
-        <v>100911059</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61">
-        <v>100911060</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62">
-        <v>100911061</v>
-      </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B63">
-        <v>100911062</v>
-      </c>
-      <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64">
-        <v>100911063</v>
-      </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B65">
-        <v>100911064</v>
-      </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66">
-        <v>100911065</v>
-      </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B67">
-        <v>100911066</v>
-      </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B68">
-        <v>100911067</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B69">
-        <v>100911068</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70">
-        <v>100911069</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71">
-        <v>100911070</v>
-      </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B72">
-        <v>100911071</v>
-      </c>
-      <c r="C72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73">
-        <v>100911072</v>
-      </c>
-      <c r="C73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <v>100911073</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75">
-        <v>100911074</v>
-      </c>
-      <c r="C75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B76">
-        <v>100911075</v>
-      </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B77">
-        <v>100911076</v>
-      </c>
-      <c r="C77" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78">
-        <v>100911077</v>
-      </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>207</v>
-      </c>
-      <c r="B79">
-        <v>100911078</v>
-      </c>
-      <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B80">
-        <v>100911079</v>
-      </c>
-      <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B81">
-        <v>100911080</v>
-      </c>
-      <c r="C81" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82">
-        <v>100911100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83">
-        <v>100911102</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" tooltip="Ancient Gear Hunting Hound" display="http://yugioh.wikia.com/wiki/Ancient_Gear_Hunting_Hound"/>
-    <hyperlink ref="A15" r:id="rId2" tooltip="Juunishishi Molmorat" display="http://yugioh.wikia.com/wiki/Juunishishi_Molmorat"/>
-    <hyperlink ref="A16" r:id="rId3" tooltip="Juunishishi Rabbina" display="http://yugioh.wikia.com/wiki/Juunishishi_Rabbina"/>
-    <hyperlink ref="A17" r:id="rId4" tooltip="Juunishishi Viper" display="http://yugioh.wikia.com/wiki/Juunishishi_Viper"/>
-    <hyperlink ref="A18" r:id="rId5" tooltip="Juunishishi Thoroughblade" display="http://yugioh.wikia.com/wiki/Juunishishi_Thoroughblade"/>
-    <hyperlink ref="A19" r:id="rId6" tooltip="Juunishishi Ram" display="http://yugioh.wikia.com/wiki/Juunishishi_Ram"/>
-    <hyperlink ref="A21" r:id="rId7" tooltip="Crystron Rion" display="http://yugioh.wikia.com/wiki/Crystron_Rion"/>
-    <hyperlink ref="A22" r:id="rId8" tooltip="Crystron Sulphafnir" display="http://yugioh.wikia.com/wiki/Crystron_Sulphafnir"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="LDK2-EN" sheetId="10" r:id="rId1"/>
-    <sheet name="RATE-JP" sheetId="11" r:id="rId2"/>
-    <sheet name="SDMY-EN" sheetId="13" r:id="rId3"/>
-    <sheet name="SDKS-EN" sheetId="14" r:id="rId4"/>
-    <sheet name="INOV-EN" sheetId="15" r:id="rId5"/>
-    <sheet name="SPFE-JP" sheetId="17" r:id="rId6"/>
-    <sheet name="SPDS-EN" sheetId="5" r:id="rId7"/>
-    <sheet name="SDPD-EN" sheetId="16" r:id="rId8"/>
+    <sheet name="README" sheetId="18" r:id="rId1"/>
+    <sheet name="LDK2-EN" sheetId="10" r:id="rId2"/>
+    <sheet name="RATE-JP" sheetId="11" r:id="rId3"/>
+    <sheet name="SDMY-EN" sheetId="13" r:id="rId4"/>
+    <sheet name="SDKS-EN" sheetId="14" r:id="rId5"/>
+    <sheet name="INOV-EN" sheetId="15" r:id="rId6"/>
+    <sheet name="SPFE-JP" sheetId="17" r:id="rId7"/>
+    <sheet name="SPDS-EN" sheetId="5" r:id="rId8"/>
+    <sheet name="SDPD-EN" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="252">
   <si>
     <t>:</t>
   </si>
@@ -768,6 +769,15 @@
   </si>
   <si>
     <t>Eidolon Summoning Magic</t>
+  </si>
+  <si>
+    <t>Macromorph</t>
+  </si>
+  <si>
+    <t>Bulk Rename Utility</t>
+  </si>
+  <si>
+    <t>http://www.bulkrenameutility.co.uk/Main_Intro.php</t>
   </si>
 </sst>
 </file>
@@ -1164,9 +1174,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1237,12 +1275,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2066,10 +2104,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B59">
-        <v>100911058</v>
+        <v>100911059</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -2080,10 +2118,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60">
-        <v>100911059</v>
+        <v>100911060</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -2094,10 +2132,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B61">
-        <v>100911060</v>
+        <v>100911061</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -2108,10 +2146,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B62">
-        <v>100911061</v>
+        <v>100911062</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -2122,10 +2160,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B63">
-        <v>100911062</v>
+        <v>100911063</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -2136,10 +2174,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B64">
-        <v>100911063</v>
+        <v>100911064</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -2150,10 +2188,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B65">
-        <v>100911064</v>
+        <v>100911065</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -2164,10 +2202,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B66">
-        <v>100911065</v>
+        <v>100911066</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -2178,10 +2216,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B67">
-        <v>100911066</v>
+        <v>100911067</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -2192,10 +2230,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B68">
-        <v>100911067</v>
+        <v>100911068</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -2206,10 +2244,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>100911068</v>
+        <v>100911069</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -2220,10 +2258,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="B70">
-        <v>100911069</v>
+        <v>100911070</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -2234,10 +2272,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B71">
-        <v>100911070</v>
+        <v>100911072</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -2248,10 +2286,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B72">
-        <v>100911071</v>
+        <v>100911073</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -2262,10 +2300,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B73">
-        <v>100911072</v>
+        <v>100911074</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -2276,10 +2314,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B74">
-        <v>100911073</v>
+        <v>100911075</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -2290,10 +2328,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B75">
-        <v>100911074</v>
+        <v>100911076</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -2304,10 +2342,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B76">
-        <v>100911075</v>
+        <v>100911077</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -2318,10 +2356,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B77">
-        <v>100911076</v>
+        <v>100911078</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -2332,10 +2370,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B78">
-        <v>100911077</v>
+        <v>100911079</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -2346,10 +2384,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B79">
-        <v>100911078</v>
+        <v>100911080</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -2360,10 +2398,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B80">
-        <v>100911079</v>
+        <v>100911100</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -2373,30 +2411,17 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>209</v>
+      </c>
       <c r="B81">
-        <v>100911080</v>
+        <v>100911102</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82">
-        <v>100911100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83">
-        <v>100911102</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2493,7 +2518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2570,7 +2595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
@@ -2997,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -3515,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -3789,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="18" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
   <si>
     <t>:</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>http://www.bulkrenameutility.co.uk/Main_Intro.php</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Esprit Bird Token</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1277,18 +1283,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.4609375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1314,8 +1320,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>45667991</v>
+      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1328,8 +1337,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>81055000</v>
+      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1342,8 +1354,11 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>17540705</v>
+      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1356,8 +1371,11 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>44944304</v>
+      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1370,8 +1388,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>70939418</v>
+      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1384,8 +1405,11 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>17328157</v>
+      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1398,8 +1422,11 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>43722862</v>
+      </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1412,8 +1439,11 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>70117860</v>
+      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1426,8 +1456,11 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>6205579</v>
+      </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1440,8 +1473,11 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
+      <c r="D11">
+        <v>42600274</v>
+      </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1454,8 +1490,11 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
+      <c r="D12">
+        <v>79094383</v>
+      </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1468,8 +1507,11 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>5489987</v>
+      </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1482,8 +1524,11 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>42878636</v>
+      </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1496,8 +1541,11 @@
       <c r="C15" t="s">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>78872731</v>
+      </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1510,8 +1558,11 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>4367330</v>
+      </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1524,8 +1575,11 @@
       <c r="C17" t="s">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>31755044</v>
+      </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1538,8 +1592,11 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>77150143</v>
+      </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1552,8 +1609,11 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>4145852</v>
+      </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1566,8 +1626,11 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>30539496</v>
+      </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1580,8 +1643,11 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>66938505</v>
+      </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1594,8 +1660,11 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>3422200</v>
+      </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1608,8 +1677,11 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>39817919</v>
+      </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,8 +1694,11 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>66815913</v>
+      </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1636,8 +1711,11 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>92200612</v>
+      </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1650,8 +1728,11 @@
       <c r="C26" t="s">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>38695361</v>
+      </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1664,8 +1745,11 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>65193366</v>
+      </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1678,8 +1762,11 @@
       <c r="C28" t="s">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>91588074</v>
+      </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,8 +1779,11 @@
       <c r="C29" t="s">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>38572779</v>
+      </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1706,8 +1796,11 @@
       <c r="C30" t="s">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>64977888</v>
+      </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,8 +1813,11 @@
       <c r="C31" t="s">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>90365482</v>
+      </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1734,8 +1830,11 @@
       <c r="C32" t="s">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>27750191</v>
+      </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1748,8 +1847,11 @@
       <c r="C33" t="s">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>63845230</v>
+      </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1762,8 +1864,11 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>90243945</v>
+      </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,8 +1881,11 @@
       <c r="C35" t="s">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>26638543</v>
+      </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1790,8 +1898,11 @@
       <c r="C36" t="s">
         <v>0</v>
       </c>
+      <c r="D36">
+        <v>52022648</v>
+      </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1804,8 +1915,11 @@
       <c r="C37" t="s">
         <v>0</v>
       </c>
+      <c r="D37">
+        <v>99427357</v>
+      </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1818,8 +1932,11 @@
       <c r="C38" t="s">
         <v>0</v>
       </c>
+      <c r="D38">
+        <v>25415052</v>
+      </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1832,8 +1949,11 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>52900000</v>
+      </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1846,8 +1966,11 @@
       <c r="C40" t="s">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>88305705</v>
+      </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1860,8 +1983,11 @@
       <c r="C41" t="s">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>25793414</v>
+      </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1874,8 +2000,11 @@
       <c r="C42" t="s">
         <v>0</v>
       </c>
+      <c r="D42">
+        <v>51788412</v>
+      </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1888,8 +2017,11 @@
       <c r="C43" t="s">
         <v>0</v>
       </c>
+      <c r="D43">
+        <v>87182127</v>
+      </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1902,8 +2034,11 @@
       <c r="C44" t="s">
         <v>0</v>
       </c>
+      <c r="D44">
+        <v>14577226</v>
+      </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1916,8 +2051,11 @@
       <c r="C45" t="s">
         <v>0</v>
       </c>
+      <c r="D45">
+        <v>50065971</v>
+      </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1930,8 +2068,11 @@
       <c r="C46" t="s">
         <v>0</v>
       </c>
+      <c r="D46">
+        <v>84760579</v>
+      </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1944,8 +2085,11 @@
       <c r="C47" t="s">
         <v>0</v>
       </c>
+      <c r="D47">
+        <v>13455674</v>
+      </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1958,8 +2102,11 @@
       <c r="C48" t="s">
         <v>0</v>
       </c>
+      <c r="D48">
+        <v>59843383</v>
+      </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1972,8 +2119,11 @@
       <c r="C49" t="s">
         <v>0</v>
       </c>
+      <c r="D49">
+        <v>86238081</v>
+      </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1986,8 +2136,11 @@
       <c r="C50" t="s">
         <v>0</v>
       </c>
+      <c r="D50">
+        <v>12632096</v>
+      </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2000,8 +2153,11 @@
       <c r="C51" t="s">
         <v>0</v>
       </c>
+      <c r="D51">
+        <v>49121795</v>
+      </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2014,8 +2170,11 @@
       <c r="C52" t="s">
         <v>0</v>
       </c>
+      <c r="D52">
+        <v>85115440</v>
+      </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2028,8 +2187,11 @@
       <c r="C53" t="s">
         <v>0</v>
       </c>
+      <c r="D53">
+        <v>11510448</v>
+      </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2042,8 +2204,11 @@
       <c r="C54" t="s">
         <v>0</v>
       </c>
+      <c r="D54">
+        <v>48905153</v>
+      </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2056,8 +2221,11 @@
       <c r="C55" t="s">
         <v>0</v>
       </c>
+      <c r="D55">
+        <v>74393852</v>
+      </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2070,8 +2238,11 @@
       <c r="C56" t="s">
         <v>0</v>
       </c>
+      <c r="D56">
+        <v>11398951</v>
+      </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2084,8 +2255,11 @@
       <c r="C57" t="s">
         <v>0</v>
       </c>
+      <c r="D57">
+        <v>47882565</v>
+      </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2098,8 +2272,11 @@
       <c r="C58" t="s">
         <v>0</v>
       </c>
+      <c r="D58">
+        <v>73271204</v>
+      </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2112,8 +2289,11 @@
       <c r="C59" t="s">
         <v>0</v>
       </c>
+      <c r="D59">
+        <v>46060017</v>
+      </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2126,8 +2306,11 @@
       <c r="C60" t="s">
         <v>0</v>
       </c>
+      <c r="D60">
+        <v>73055622</v>
+      </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2140,8 +2323,11 @@
       <c r="C61" t="s">
         <v>0</v>
       </c>
+      <c r="D61">
+        <v>9553721</v>
+      </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2154,8 +2340,11 @@
       <c r="C62" t="s">
         <v>0</v>
       </c>
+      <c r="D62">
+        <v>45948430</v>
+      </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2168,8 +2357,11 @@
       <c r="C63" t="s">
         <v>0</v>
       </c>
+      <c r="D63">
+        <v>72332074</v>
+      </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2182,8 +2374,11 @@
       <c r="C64" t="s">
         <v>0</v>
       </c>
+      <c r="D64">
+        <v>8321183</v>
+      </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2196,8 +2391,11 @@
       <c r="C65" t="s">
         <v>0</v>
       </c>
+      <c r="D65">
+        <v>35726888</v>
+      </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2210,8 +2408,11 @@
       <c r="C66" t="s">
         <v>0</v>
       </c>
+      <c r="D66">
+        <v>11110587</v>
+      </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2224,8 +2425,11 @@
       <c r="C67" t="s">
         <v>0</v>
       </c>
+      <c r="D67">
+        <v>48605591</v>
+      </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2238,8 +2442,11 @@
       <c r="C68" t="s">
         <v>0</v>
       </c>
+      <c r="D68">
+        <v>74003290</v>
+      </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2252,8 +2459,11 @@
       <c r="C69" t="s">
         <v>0</v>
       </c>
+      <c r="D69">
+        <v>98905</v>
+      </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2266,8 +2476,11 @@
       <c r="C70" t="s">
         <v>0</v>
       </c>
+      <c r="D70">
+        <v>47482043</v>
+      </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2280,8 +2493,11 @@
       <c r="C71" t="s">
         <v>0</v>
       </c>
+      <c r="D71">
+        <v>276357</v>
+      </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2294,8 +2510,11 @@
       <c r="C72" t="s">
         <v>0</v>
       </c>
+      <c r="D72">
+        <v>32360466</v>
+      </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2308,8 +2527,11 @@
       <c r="C73" t="s">
         <v>0</v>
       </c>
+      <c r="D73">
+        <v>78765160</v>
+      </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2322,8 +2544,11 @@
       <c r="C74" t="s">
         <v>0</v>
       </c>
+      <c r="D74">
+        <v>5153769</v>
+      </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2336,8 +2561,11 @@
       <c r="C75" t="s">
         <v>0</v>
       </c>
+      <c r="D75">
+        <v>31548814</v>
+      </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2350,8 +2578,11 @@
       <c r="C76" t="s">
         <v>0</v>
       </c>
+      <c r="D76">
+        <v>78942513</v>
+      </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2364,8 +2595,11 @@
       <c r="C77" t="s">
         <v>0</v>
       </c>
+      <c r="D77">
+        <v>4931121</v>
+      </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2378,8 +2612,11 @@
       <c r="C78" t="s">
         <v>0</v>
       </c>
+      <c r="D78">
+        <v>30426226</v>
+      </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -2392,8 +2629,11 @@
       <c r="C79" t="s">
         <v>0</v>
       </c>
+      <c r="D79">
+        <v>67820935</v>
+      </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2406,8 +2646,11 @@
       <c r="C80" t="s">
         <v>0</v>
       </c>
+      <c r="D80">
+        <v>675319</v>
+      </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2420,8 +2663,28 @@
       <c r="C81" t="s">
         <v>0</v>
       </c>
+      <c r="D81">
+        <v>73881652</v>
+      </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82">
+        <v>100911138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>25415053</v>
+      </c>
+      <c r="E82" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="18" r:id="rId1"/>
-    <sheet name="LDK2-EN" sheetId="10" r:id="rId2"/>
-    <sheet name="RATE-JP" sheetId="11" r:id="rId3"/>
-    <sheet name="SDMY-EN" sheetId="13" r:id="rId4"/>
-    <sheet name="SDKS-EN" sheetId="14" r:id="rId5"/>
-    <sheet name="INOV-EN" sheetId="15" r:id="rId6"/>
-    <sheet name="SPFE-JP" sheetId="17" r:id="rId7"/>
-    <sheet name="SPDS-EN" sheetId="5" r:id="rId8"/>
-    <sheet name="SDPD-EN" sheetId="16" r:id="rId9"/>
+    <sheet name="SDMY-EN" sheetId="13" r:id="rId2"/>
+    <sheet name="SDKS-EN" sheetId="14" r:id="rId3"/>
+    <sheet name="INOV-EN" sheetId="15" r:id="rId4"/>
+    <sheet name="SPFE-JP" sheetId="17" r:id="rId5"/>
+    <sheet name="SPDS-EN" sheetId="5" r:id="rId6"/>
+    <sheet name="SDPD-EN" sheetId="16" r:id="rId7"/>
+    <sheet name="RATE-EN" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="252">
   <si>
     <t>:</t>
   </si>
@@ -123,27 +122,6 @@
     <t>Destiny Soldiers</t>
   </si>
   <si>
-    <t>Legendary Decks II</t>
-  </si>
-  <si>
-    <t>Obliterate!!!</t>
-  </si>
-  <si>
-    <t>The Legendary Exodia Incarnate</t>
-  </si>
-  <si>
-    <t>Ties of the Brethren</t>
-  </si>
-  <si>
-    <t>Dark Burning Attack</t>
-  </si>
-  <si>
-    <t>Dark Burning Magic</t>
-  </si>
-  <si>
-    <t>Eternal Soul</t>
-  </si>
-  <si>
     <t>Raging Tempest</t>
   </si>
   <si>
@@ -618,9 +596,6 @@
     <t>Machine Angel Absolute Ritual</t>
   </si>
   <si>
-    <t>Juunishishi no Kaikyoku</t>
-  </si>
-  <si>
     <t>Esprit Calling</t>
   </si>
   <si>
@@ -732,9 +707,6 @@
     <t>Universal Beginning</t>
   </si>
   <si>
-    <t>Majespecter Gust</t>
-  </si>
-  <si>
     <t>Void Madness</t>
   </si>
   <si>
@@ -784,6 +756,27 @@
   </si>
   <si>
     <t>Esprit Bird Token</t>
+  </si>
+  <si>
+    <t>Space Dragster</t>
+  </si>
+  <si>
+    <t>"Subterror" monster</t>
+  </si>
+  <si>
+    <t>"Subterror" card</t>
+  </si>
+  <si>
+    <t>Charming Resort Staff</t>
+  </si>
+  <si>
+    <t>SPYRAL Master Plan</t>
+  </si>
+  <si>
+    <t>"SPYRAL" card</t>
+  </si>
+  <si>
+    <t>SPYRAL Resort</t>
   </si>
 </sst>
 </file>
@@ -865,13 +858,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -879,6 +869,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,11 +1186,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>250</v>
+      <c r="A1" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1207,1502 +1200,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3">
-        <v>42650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>64043465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>58604027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>40450317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>49702428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>75190122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>48680970</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4609375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2">
-        <v>42651</v>
-      </c>
-      <c r="F1" s="10">
-        <v>42424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>100911001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>45667991</v>
-      </c>
-      <c r="E2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3">
-        <v>100911002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>81055000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4">
-        <v>100911003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>17540705</v>
-      </c>
-      <c r="E4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5">
-        <v>100911004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>44944304</v>
-      </c>
-      <c r="E5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>100911005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>70939418</v>
-      </c>
-      <c r="E6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>100911006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>17328157</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>100911007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>43722862</v>
-      </c>
-      <c r="E8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>100911008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>70117860</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10">
-        <v>100911009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>6205579</v>
-      </c>
-      <c r="E10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11">
-        <v>100911010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>42600274</v>
-      </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>100911011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>79094383</v>
-      </c>
-      <c r="E12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13">
-        <v>100911012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>5489987</v>
-      </c>
-      <c r="E13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14">
-        <v>100911013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>42878636</v>
-      </c>
-      <c r="E14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15">
-        <v>100911014</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>78872731</v>
-      </c>
-      <c r="E15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16">
-        <v>100911015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>4367330</v>
-      </c>
-      <c r="E16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17">
-        <v>100911016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>31755044</v>
-      </c>
-      <c r="E17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18">
-        <v>100911017</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>77150143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19">
-        <v>100911018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>4145852</v>
-      </c>
-      <c r="E19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20">
-        <v>100911019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>30539496</v>
-      </c>
-      <c r="E20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21">
-        <v>100911020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>66938505</v>
-      </c>
-      <c r="E21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22">
-        <v>100911021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>3422200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23">
-        <v>100911022</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>39817919</v>
-      </c>
-      <c r="E23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24">
-        <v>100911023</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>66815913</v>
-      </c>
-      <c r="E24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25">
-        <v>100911024</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>92200612</v>
-      </c>
-      <c r="E25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26">
-        <v>100911025</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>38695361</v>
-      </c>
-      <c r="E26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27">
-        <v>100911026</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>65193366</v>
-      </c>
-      <c r="E27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28">
-        <v>100911027</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>91588074</v>
-      </c>
-      <c r="E28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29">
-        <v>100911028</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>38572779</v>
-      </c>
-      <c r="E29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30">
-        <v>100911029</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>64977888</v>
-      </c>
-      <c r="E30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31">
-        <v>100911030</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>90365482</v>
-      </c>
-      <c r="E31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32">
-        <v>100911031</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>27750191</v>
-      </c>
-      <c r="E32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33">
-        <v>100911032</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>63845230</v>
-      </c>
-      <c r="E33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34">
-        <v>100911033</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>90243945</v>
-      </c>
-      <c r="E34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35">
-        <v>100911034</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>26638543</v>
-      </c>
-      <c r="E35" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36">
-        <v>100911035</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>52022648</v>
-      </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37">
-        <v>100911036</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>99427357</v>
-      </c>
-      <c r="E37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38">
-        <v>100911037</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>25415052</v>
-      </c>
-      <c r="E38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39">
-        <v>100911038</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>52900000</v>
-      </c>
-      <c r="E39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>100911039</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>88305705</v>
-      </c>
-      <c r="E40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41">
-        <v>100911040</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>25793414</v>
-      </c>
-      <c r="E41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42">
-        <v>100911041</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>51788412</v>
-      </c>
-      <c r="E42" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43">
-        <v>100911042</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>87182127</v>
-      </c>
-      <c r="E43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>100911043</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>14577226</v>
-      </c>
-      <c r="E44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45">
-        <v>100911044</v>
-      </c>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>50065971</v>
-      </c>
-      <c r="E45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46">
-        <v>100911045</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>84760579</v>
-      </c>
-      <c r="E46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47">
-        <v>100911046</v>
-      </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>13455674</v>
-      </c>
-      <c r="E47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48">
-        <v>100911047</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>59843383</v>
-      </c>
-      <c r="E48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49">
-        <v>100911048</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>86238081</v>
-      </c>
-      <c r="E49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>100911049</v>
-      </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>12632096</v>
-      </c>
-      <c r="E50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51">
-        <v>100911050</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>49121795</v>
-      </c>
-      <c r="E51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52">
-        <v>100911051</v>
-      </c>
-      <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>85115440</v>
-      </c>
-      <c r="E52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53">
-        <v>100911052</v>
-      </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>11510448</v>
-      </c>
-      <c r="E53" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54">
-        <v>100911053</v>
-      </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>48905153</v>
-      </c>
-      <c r="E54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55">
-        <v>100911054</v>
-      </c>
-      <c r="C55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>74393852</v>
-      </c>
-      <c r="E55" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56">
-        <v>100911055</v>
-      </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>11398951</v>
-      </c>
-      <c r="E56" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57">
-        <v>100911056</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>47882565</v>
-      </c>
-      <c r="E57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58">
-        <v>100911057</v>
-      </c>
-      <c r="C58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>73271204</v>
-      </c>
-      <c r="E58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59">
-        <v>100911059</v>
-      </c>
-      <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>46060017</v>
-      </c>
-      <c r="E59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60">
-        <v>100911060</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>73055622</v>
-      </c>
-      <c r="E60" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61">
-        <v>100911061</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>9553721</v>
-      </c>
-      <c r="E61" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62">
-        <v>100911062</v>
-      </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>45948430</v>
-      </c>
-      <c r="E62" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63">
-        <v>100911063</v>
-      </c>
-      <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>72332074</v>
-      </c>
-      <c r="E63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>231</v>
-      </c>
-      <c r="B64">
-        <v>100911064</v>
-      </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>8321183</v>
-      </c>
-      <c r="E64" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65">
-        <v>100911065</v>
-      </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>35726888</v>
-      </c>
-      <c r="E65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66">
-        <v>100911066</v>
-      </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>11110587</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>233</v>
-      </c>
-      <c r="B67">
-        <v>100911067</v>
-      </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>48605591</v>
-      </c>
-      <c r="E67" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68">
-        <v>100911068</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>74003290</v>
-      </c>
-      <c r="E68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69">
-        <v>100911069</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>98905</v>
-      </c>
-      <c r="E69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70">
-        <v>100911070</v>
-      </c>
-      <c r="C70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>47482043</v>
-      </c>
-      <c r="E70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71">
-        <v>100911072</v>
-      </c>
-      <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>276357</v>
-      </c>
-      <c r="E71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>235</v>
-      </c>
-      <c r="B72">
-        <v>100911073</v>
-      </c>
-      <c r="C72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>32360466</v>
-      </c>
-      <c r="E72" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73">
-        <v>100911074</v>
-      </c>
-      <c r="C73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>78765160</v>
-      </c>
-      <c r="E73" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74">
-        <v>100911075</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>5153769</v>
-      </c>
-      <c r="E74" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75">
-        <v>100911076</v>
-      </c>
-      <c r="C75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>31548814</v>
-      </c>
-      <c r="E75" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76">
-        <v>100911077</v>
-      </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>78942513</v>
-      </c>
-      <c r="E76" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77">
-        <v>100911078</v>
-      </c>
-      <c r="C77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>4931121</v>
-      </c>
-      <c r="E77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78">
-        <v>100911079</v>
-      </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>30426226</v>
-      </c>
-      <c r="E78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79">
-        <v>100911080</v>
-      </c>
-      <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>67820935</v>
-      </c>
-      <c r="E79" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80">
-        <v>100911100</v>
-      </c>
-      <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>675319</v>
-      </c>
-      <c r="E80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81">
-        <v>100911102</v>
-      </c>
-      <c r="C81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>73881652</v>
-      </c>
-      <c r="E81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82">
-        <v>100911138</v>
-      </c>
-      <c r="C82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>25415053</v>
-      </c>
-      <c r="E82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" tooltip="Ancient Gear Hunting Hound" display="http://yugioh.wikia.com/wiki/Ancient_Gear_Hunting_Hound"/>
-    <hyperlink ref="A15" r:id="rId2" tooltip="Juunishishi Molmorat" display="http://yugioh.wikia.com/wiki/Juunishishi_Molmorat"/>
-    <hyperlink ref="A16" r:id="rId3" tooltip="Juunishishi Rabbina" display="http://yugioh.wikia.com/wiki/Juunishishi_Rabbina"/>
-    <hyperlink ref="A17" r:id="rId4" tooltip="Juunishishi Viper" display="http://yugioh.wikia.com/wiki/Juunishishi_Viper"/>
-    <hyperlink ref="A18" r:id="rId5" tooltip="Juunishishi Thoroughblade" display="http://yugioh.wikia.com/wiki/Juunishishi_Thoroughblade"/>
-    <hyperlink ref="A19" r:id="rId6" tooltip="Juunishishi Ram" display="http://yugioh.wikia.com/wiki/Juunishishi_Ram"/>
-    <hyperlink ref="A21" r:id="rId7" tooltip="Crystron Rion" display="http://yugioh.wikia.com/wiki/Crystron_Rion"/>
-    <hyperlink ref="A22" r:id="rId8" tooltip="Crystron Sulphafnir" display="http://yugioh.wikia.com/wiki/Crystron_Sulphafnir"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2717,62 +1214,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5">
         <v>42664</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2796,61 +1293,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5">
         <v>42664</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2858,434 +1355,575 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.23046875" customWidth="1"/>
+    <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5">
         <v>42678</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="12">
+        <v>100910000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12">
+        <v>100910081</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="12">
+        <v>100910082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100910083</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="12">
+        <v>100910084</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="12">
+        <v>100910085</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="12">
+        <v>100910086</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="12">
+        <v>100910087</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="12">
+        <v>100910088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="12">
+        <v>100910089</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -3301,10 +1939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="5">
         <v>42686</v>
       </c>
     </row>
@@ -3354,7 +1992,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B6">
         <v>100406005</v>
@@ -3401,7 +2039,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B10">
         <v>100406009</v>
@@ -3415,7 +2053,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B11">
         <v>100406010</v>
@@ -3429,7 +2067,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B12">
         <v>100406011</v>
@@ -3509,7 +2147,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B19">
         <v>100406020</v>
@@ -3567,7 +2205,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B24">
         <v>100406026</v>
@@ -3592,7 +2230,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B26">
         <v>100406028</v>
@@ -3650,7 +2288,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B31">
         <v>100406033</v>
@@ -3675,7 +2313,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B33">
         <v>100406035</v>
@@ -3803,7 +2441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -3820,7 +2458,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="2">
@@ -4077,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -4092,89 +2730,1511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="5">
         <v>42755</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9">
+        <v>42424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>45667991</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>81055000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>17540705</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>44944304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>70939418</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>17328157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>43722862</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>70117860</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>6205579</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>42600274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>79094383</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5489987</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>42878636</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>78872731</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4367330</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>31755044</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>77150143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4145852</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>30539496</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>66938505</v>
+      </c>
+      <c r="D31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3422200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>39817919</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>66815913</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>92200612</v>
+      </c>
+      <c r="D35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>38695361</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>65193366</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>91588074</v>
+      </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>38572779</v>
+      </c>
+      <c r="D39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>64977888</v>
+      </c>
+      <c r="D40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>90365482</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>27750191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>63845230</v>
+      </c>
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>90243945</v>
+      </c>
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>26638543</v>
+      </c>
+      <c r="D45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>52022648</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>99427357</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>25415052</v>
+      </c>
+      <c r="D48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>52900000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>88305705</v>
+      </c>
+      <c r="D50" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>25793414</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>51788412</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>87182127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>14577226</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>50065971</v>
+      </c>
+      <c r="D55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>84760579</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>13455674</v>
+      </c>
+      <c r="D57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>59843383</v>
+      </c>
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>86238081</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>12632096</v>
+      </c>
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>49121795</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>85115440</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>11510448</v>
+      </c>
+      <c r="D63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>48905153</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>74393852</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>11398951</v>
+      </c>
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>47882565</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>73271204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>73055622</v>
+      </c>
+      <c r="D69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>9553721</v>
+      </c>
+      <c r="D70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>45948430</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>72332074</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>8321183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>35726888</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>11110587</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>48605591</v>
+      </c>
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>74003290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>98905</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>47482043</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>276357</v>
+      </c>
+      <c r="D80" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>32360466</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>78765160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>31548814</v>
+      </c>
+      <c r="D83" t="s">
+        <v>243</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>78942513</v>
+      </c>
+      <c r="D84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>4931121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>30426226</v>
+      </c>
+      <c r="D86" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>67820935</v>
+      </c>
+      <c r="D87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>675319</v>
+      </c>
+      <c r="D88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>73881652</v>
+      </c>
+      <c r="D89" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>25415053</v>
+      </c>
+      <c r="D90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" tooltip="Ancient Gear Hunting Hound" display="http://yugioh.wikia.com/wiki/Ancient_Gear_Hunting_Hound"/>
+    <hyperlink ref="A25" r:id="rId2" tooltip="Juunishishi Molmorat" display="http://yugioh.wikia.com/wiki/Juunishishi_Molmorat"/>
+    <hyperlink ref="A26" r:id="rId3" tooltip="Juunishishi Rabbina" display="http://yugioh.wikia.com/wiki/Juunishishi_Rabbina"/>
+    <hyperlink ref="A27" r:id="rId4" tooltip="Juunishishi Viper" display="http://yugioh.wikia.com/wiki/Juunishishi_Viper"/>
+    <hyperlink ref="A28" r:id="rId5" tooltip="Juunishishi Thoroughblade" display="http://yugioh.wikia.com/wiki/Juunishishi_Thoroughblade"/>
+    <hyperlink ref="A29" r:id="rId6" tooltip="Juunishishi Ram" display="http://yugioh.wikia.com/wiki/Juunishishi_Ram"/>
+    <hyperlink ref="A31" r:id="rId7" tooltip="Crystron Rion" display="http://yugioh.wikia.com/wiki/Crystron_Rion"/>
+    <hyperlink ref="A32" r:id="rId8" tooltip="Crystron Sulphafnir" display="http://yugioh.wikia.com/wiki/Crystron_Sulphafnir"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="3"/>
+    <workbookView xWindow="3945" yWindow="1260" windowWidth="12045" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="18" r:id="rId1"/>
-    <sheet name="SDMY-EN" sheetId="13" r:id="rId2"/>
-    <sheet name="SDKS-EN" sheetId="14" r:id="rId3"/>
-    <sheet name="INOV-EN" sheetId="15" r:id="rId4"/>
-    <sheet name="SPFE-JP" sheetId="17" r:id="rId5"/>
-    <sheet name="SPDS-EN" sheetId="5" r:id="rId6"/>
-    <sheet name="SDPD-EN" sheetId="16" r:id="rId7"/>
-    <sheet name="RATE-EN" sheetId="11" r:id="rId8"/>
+    <sheet name="INOV-EN" sheetId="15" r:id="rId2"/>
+    <sheet name="SPFE-JP" sheetId="17" r:id="rId3"/>
+    <sheet name="SPDS-EN" sheetId="5" r:id="rId4"/>
+    <sheet name="SDPD-EN" sheetId="16" r:id="rId5"/>
+    <sheet name="RATE-EN" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="230">
   <si>
     <t>:</t>
   </si>
@@ -156,72 +154,6 @@
   </si>
   <si>
     <t>Cipher Spectrum</t>
-  </si>
-  <si>
-    <t>Berserkion the Electromagna Warrior</t>
-  </si>
-  <si>
-    <t>Imperion Magnum the Superconductive Battlebot</t>
-  </si>
-  <si>
-    <t>Alpha The Electromagnet Warrior</t>
-  </si>
-  <si>
-    <t>Gamma The Electromagnet Warrior</t>
-  </si>
-  <si>
-    <t>Beta The Electromagnet Warrior</t>
-  </si>
-  <si>
-    <t>Dark Magic Inheritance</t>
-  </si>
-  <si>
-    <t>Magnetic Field</t>
-  </si>
-  <si>
-    <t>Magnet Conversion</t>
-  </si>
-  <si>
-    <t>Kuribohrn</t>
-  </si>
-  <si>
-    <t>Valkyrion the Magna Warrior</t>
-  </si>
-  <si>
-    <t>Yugi Muto Structure Deck</t>
-  </si>
-  <si>
-    <t>Seto Kaiba Structure Deck</t>
-  </si>
-  <si>
-    <t>A-Assault Core</t>
-  </si>
-  <si>
-    <t>B-Buster Drake</t>
-  </si>
-  <si>
-    <t>C-Crush Wyvern</t>
-  </si>
-  <si>
-    <t>Heavy Mech Support Armor</t>
-  </si>
-  <si>
-    <t>Scramble Union</t>
-  </si>
-  <si>
-    <t>A-to-Z Dragon Buster Cannon</t>
-  </si>
-  <si>
-    <t>ABC-Dragon Buster</t>
-  </si>
-  <si>
-    <t>XYZ-Dragon Cannon</t>
-  </si>
-  <si>
-    <t>Majesty with Eyes of Blue</t>
-  </si>
-  <si>
-    <t>Union Hangar</t>
   </si>
   <si>
     <t>Invasion: Vengeance</t>
@@ -858,12 +790,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1186,11 +1116,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>241</v>
+      <c r="A1" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1201,166 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="41.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1372,18 +1146,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="5">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3">
         <v>42678</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="10">
         <v>100910000</v>
       </c>
       <c r="C2" t="s">
@@ -1394,8 +1168,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
         <v>100910081</v>
       </c>
       <c r="C3" t="s">
@@ -1406,10 +1180,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="10">
         <v>100910082</v>
       </c>
       <c r="C4" t="s">
@@ -1420,10 +1194,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="10">
         <v>100910083</v>
       </c>
       <c r="C5" t="s">
@@ -1434,10 +1208,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="10">
         <v>100910084</v>
       </c>
       <c r="C6" t="s">
@@ -1448,10 +1222,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="10">
         <v>100910085</v>
       </c>
       <c r="C7" t="s">
@@ -1462,10 +1236,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="10">
         <v>100910086</v>
       </c>
       <c r="C8" t="s">
@@ -1476,10 +1250,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="10">
         <v>100910087</v>
       </c>
       <c r="C9" t="s">
@@ -1490,10 +1264,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="10">
         <v>100910088</v>
       </c>
       <c r="C10" t="s">
@@ -1504,10 +1278,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="10">
         <v>100910089</v>
       </c>
       <c r="C11" t="s">
@@ -1519,402 +1293,402 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -1939,10 +1713,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="5">
+      <c r="A1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3">
         <v>42686</v>
       </c>
     </row>
@@ -1992,7 +1766,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>100406005</v>
@@ -2039,7 +1813,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>100406009</v>
@@ -2053,7 +1827,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>100406010</v>
@@ -2067,7 +1841,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>100406011</v>
@@ -2147,7 +1921,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B19">
         <v>100406020</v>
@@ -2205,7 +1979,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B24">
         <v>100406026</v>
@@ -2230,7 +2004,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B26">
         <v>100406028</v>
@@ -2288,7 +2062,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B31">
         <v>100406033</v>
@@ -2313,7 +2087,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B33">
         <v>100406035</v>
@@ -2441,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -2458,7 +2232,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="2">
@@ -2715,7 +2489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2730,86 +2504,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="5">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3">
         <v>42755</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +2591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
@@ -2834,52 +2608,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>42424</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2892,7 +2666,7 @@
         <v>45667991</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2900,7 +2674,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -2909,7 +2683,7 @@
         <v>81055000</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -2917,7 +2691,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -2926,7 +2700,7 @@
         <v>17540705</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -2934,7 +2708,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -2943,7 +2717,7 @@
         <v>44944304</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2960,7 +2734,7 @@
         <v>70939418</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -2977,7 +2751,7 @@
         <v>17328157</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2994,7 +2768,7 @@
         <v>43722862</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -3011,7 +2785,7 @@
         <v>70117860</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -3019,7 +2793,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -3028,7 +2802,7 @@
         <v>6205579</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -3036,7 +2810,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -3045,7 +2819,7 @@
         <v>42600274</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -3062,7 +2836,7 @@
         <v>79094383</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -3070,7 +2844,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -3079,7 +2853,7 @@
         <v>5489987</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -3087,7 +2861,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -3096,7 +2870,7 @@
         <v>42878636</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -3104,7 +2878,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -3113,7 +2887,7 @@
         <v>78872731</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -3121,7 +2895,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -3130,7 +2904,7 @@
         <v>4367330</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -3138,7 +2912,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -3147,7 +2921,7 @@
         <v>31755044</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -3155,7 +2929,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -3164,7 +2938,7 @@
         <v>77150143</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -3172,7 +2946,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -3181,7 +2955,7 @@
         <v>4145852</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -3189,7 +2963,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -3198,7 +2972,7 @@
         <v>30539496</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -3206,7 +2980,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -3215,7 +2989,7 @@
         <v>66938505</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -3223,7 +2997,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -3232,7 +3006,7 @@
         <v>3422200</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -3240,7 +3014,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -3249,7 +3023,7 @@
         <v>39817919</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -3257,7 +3031,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -3266,7 +3040,7 @@
         <v>66815913</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -3274,7 +3048,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3283,7 +3057,7 @@
         <v>92200612</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3291,7 +3065,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -3300,7 +3074,7 @@
         <v>38695361</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -3308,7 +3082,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3317,7 +3091,7 @@
         <v>65193366</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -3325,7 +3099,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3334,7 +3108,7 @@
         <v>91588074</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -3342,7 +3116,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3351,7 +3125,7 @@
         <v>38572779</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -3359,7 +3133,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3368,7 +3142,7 @@
         <v>64977888</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -3376,7 +3150,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3385,7 +3159,7 @@
         <v>90365482</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3393,7 +3167,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3402,7 +3176,7 @@
         <v>27750191</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -3410,7 +3184,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3419,7 +3193,7 @@
         <v>63845230</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -3427,7 +3201,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3436,7 +3210,7 @@
         <v>90243945</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -3444,7 +3218,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -3453,7 +3227,7 @@
         <v>26638543</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
@@ -3461,7 +3235,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3470,7 +3244,7 @@
         <v>52022648</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
@@ -3478,7 +3252,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3487,7 +3261,7 @@
         <v>99427357</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -3495,7 +3269,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -3504,7 +3278,7 @@
         <v>25415052</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -3512,7 +3286,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -3521,7 +3295,7 @@
         <v>52900000</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -3538,7 +3312,7 @@
         <v>88305705</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -3546,7 +3320,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3555,7 +3329,7 @@
         <v>25793414</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3563,7 +3337,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -3572,7 +3346,7 @@
         <v>51788412</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -3580,7 +3354,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -3589,7 +3363,7 @@
         <v>87182127</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -3606,7 +3380,7 @@
         <v>14577226</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -3614,7 +3388,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -3623,7 +3397,7 @@
         <v>50065971</v>
       </c>
       <c r="D55" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -3631,7 +3405,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -3640,7 +3414,7 @@
         <v>84760579</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -3648,7 +3422,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -3657,7 +3431,7 @@
         <v>13455674</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -3665,7 +3439,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -3674,7 +3448,7 @@
         <v>59843383</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -3682,7 +3456,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3691,7 +3465,7 @@
         <v>86238081</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -3708,7 +3482,7 @@
         <v>12632096</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -3716,7 +3490,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -3725,7 +3499,7 @@
         <v>49121795</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -3733,7 +3507,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -3742,7 +3516,7 @@
         <v>85115440</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -3750,7 +3524,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -3759,7 +3533,7 @@
         <v>11510448</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -3767,7 +3541,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -3776,7 +3550,7 @@
         <v>48905153</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -3784,7 +3558,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -3793,7 +3567,7 @@
         <v>74393852</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -3801,7 +3575,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -3810,7 +3584,7 @@
         <v>11398951</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -3827,7 +3601,7 @@
         <v>47882565</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -3835,7 +3609,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -3844,7 +3618,7 @@
         <v>73271204</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -3852,7 +3626,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -3861,7 +3635,7 @@
         <v>73055622</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -3869,7 +3643,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -3878,7 +3652,7 @@
         <v>9553721</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -3886,7 +3660,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -3895,7 +3669,7 @@
         <v>45948430</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -3903,7 +3677,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -3912,7 +3686,7 @@
         <v>72332074</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -3920,7 +3694,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -3929,7 +3703,7 @@
         <v>8321183</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3937,7 +3711,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -3946,7 +3720,7 @@
         <v>35726888</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -3954,7 +3728,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -3963,7 +3737,7 @@
         <v>11110587</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -3971,7 +3745,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -3980,7 +3754,7 @@
         <v>48605591</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -3988,7 +3762,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -3997,7 +3771,7 @@
         <v>74003290</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -4014,7 +3788,7 @@
         <v>98905</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -4022,7 +3796,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -4031,7 +3805,7 @@
         <v>47482043</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -4039,7 +3813,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -4048,7 +3822,7 @@
         <v>276357</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -4056,7 +3830,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -4065,7 +3839,7 @@
         <v>32360466</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
@@ -4073,7 +3847,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -4082,7 +3856,7 @@
         <v>78765160</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -4090,7 +3864,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -4099,7 +3873,7 @@
         <v>31548814</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -4107,7 +3881,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -4116,7 +3890,7 @@
         <v>78942513</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -4124,7 +3898,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -4133,7 +3907,7 @@
         <v>4931121</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -4141,7 +3915,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -4150,7 +3924,7 @@
         <v>30426226</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -4158,7 +3932,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
@@ -4167,7 +3941,7 @@
         <v>67820935</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -4175,7 +3949,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
@@ -4184,7 +3958,7 @@
         <v>675319</v>
       </c>
       <c r="D88" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -4192,7 +3966,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
@@ -4201,7 +3975,7 @@
         <v>73881652</v>
       </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -4209,7 +3983,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
@@ -4218,7 +3992,7 @@
         <v>25415053</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="233">
   <si>
     <t>:</t>
   </si>
@@ -693,22 +693,31 @@
     <t>Space Dragster</t>
   </si>
   <si>
-    <t>"Subterror" monster</t>
-  </si>
-  <si>
-    <t>"Subterror" card</t>
-  </si>
-  <si>
     <t>Charming Resort Staff</t>
   </si>
   <si>
     <t>SPYRAL Master Plan</t>
   </si>
   <si>
-    <t>"SPYRAL" card</t>
-  </si>
-  <si>
     <t>SPYRAL Resort</t>
+  </si>
+  <si>
+    <t>Vermillion Dragon Mech</t>
+  </si>
+  <si>
+    <t>Subterror Nemesis Archer</t>
+  </si>
+  <si>
+    <t>Subterror Behemoth Stygokraken</t>
+  </si>
+  <si>
+    <t>Subterror Behemoth Ultramafus</t>
+  </si>
+  <si>
+    <t>Subterror Behemoth Burrowing</t>
+  </si>
+  <si>
+    <t>SPYRAL MISSION - Assault</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1163,25 +1172,33 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>92092092</v>
+      </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
       <c r="B3" s="10">
         <v>100910081</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>66698383</v>
+      </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>224</v>
+      <c r="A4" t="s">
+        <v>228</v>
       </c>
       <c r="B4" s="10">
         <v>100910082</v>
@@ -1189,13 +1206,16 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>39581190</v>
+      </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>224</v>
+      <c r="A5" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="10">
         <v>100910083</v>
@@ -1203,13 +1223,16 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>65976795</v>
+      </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>224</v>
+      <c r="A6" t="s">
+        <v>230</v>
       </c>
       <c r="B6" s="10">
         <v>100910084</v>
@@ -1217,13 +1240,16 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>92970404</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>225</v>
+      <c r="A7" t="s">
+        <v>231</v>
       </c>
       <c r="B7" s="10">
         <v>100910085</v>
@@ -1231,13 +1257,16 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>28369508</v>
+      </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="10">
         <v>100910086</v>
@@ -1245,13 +1274,16 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>64753157</v>
+      </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="10">
         <v>100910087</v>
@@ -1259,13 +1291,16 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>91258852</v>
+      </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>228</v>
+      <c r="A10" t="s">
+        <v>232</v>
       </c>
       <c r="B10" s="10">
         <v>100910088</v>
@@ -1273,19 +1308,25 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>27642961</v>
+      </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="10">
         <v>100910089</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
+      </c>
+      <c r="D11">
+        <v>54631665</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -8,18 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="18" r:id="rId1"/>
-    <sheet name="INOV-EN" sheetId="15" r:id="rId2"/>
-    <sheet name="SPFE-JP" sheetId="17" r:id="rId3"/>
-    <sheet name="SPDS-EN" sheetId="5" r:id="rId4"/>
-    <sheet name="SDPD-EN" sheetId="16" r:id="rId5"/>
-    <sheet name="RATE-EN" sheetId="11" r:id="rId6"/>
+    <sheet name="SPFE-JP" sheetId="17" r:id="rId2"/>
+    <sheet name="SPDS-EN" sheetId="5" r:id="rId3"/>
+    <sheet name="SDPD-EN" sheetId="16" r:id="rId4"/>
+    <sheet name="RATE-EN" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="158">
   <si>
     <t>:</t>
   </si>
@@ -156,249 +155,6 @@
     <t>Cipher Spectrum</t>
   </si>
   <si>
-    <t>Invasion: Vengeance</t>
-  </si>
-  <si>
-    <t>Dragon Core Accursed</t>
-  </si>
-  <si>
-    <t>Performapal Whim Witch</t>
-  </si>
-  <si>
-    <t>Performapal Hop Hippo</t>
-  </si>
-  <si>
-    <t>Performapal Seal Eel</t>
-  </si>
-  <si>
-    <t>Performapal Chain Giraffe</t>
-  </si>
-  <si>
-    <t>Predator Plant Fly Trap</t>
-  </si>
-  <si>
-    <t>Predator Plant Moray Nepenthes</t>
-  </si>
-  <si>
-    <t>Predator Plant Squid Drosera</t>
-  </si>
-  <si>
-    <t>Superheavy Samurai Soularbitrator</t>
-  </si>
-  <si>
-    <t>Cipher Twin Raptor</t>
-  </si>
-  <si>
-    <t>Cipher Mirror Knight</t>
-  </si>
-  <si>
-    <t>Cardian - Hagi ni Inoshishi</t>
-  </si>
-  <si>
-    <t>Cardian - Momiji ni Shika</t>
-  </si>
-  <si>
-    <t>Cardian - Botan ni Cho</t>
-  </si>
-  <si>
-    <t>Crystron Quon</t>
-  </si>
-  <si>
-    <t>Crystron Citri</t>
-  </si>
-  <si>
-    <t>Crystron Prasirator</t>
-  </si>
-  <si>
-    <t>Crystron Smoger</t>
-  </si>
-  <si>
-    <t>Crystron Thystvern</t>
-  </si>
-  <si>
-    <t>Crystron Rosenix</t>
-  </si>
-  <si>
-    <t>Bahrstos Fuhrer, the True Dracoruler</t>
-  </si>
-  <si>
-    <t>Raremetalfoes Bismagia</t>
-  </si>
-  <si>
-    <t>Chemical Beast Hydron Hawk</t>
-  </si>
-  <si>
-    <t>Chemical Beast Carbon Crab</t>
-  </si>
-  <si>
-    <t>Chemical Beast Oxine Ox</t>
-  </si>
-  <si>
-    <t>Advanced Chemical Beast Dyoxen</t>
-  </si>
-  <si>
-    <t>Advanced Chemical Beast Hy Dragon</t>
-  </si>
-  <si>
-    <t>Red-Eyes Meteor Dragon</t>
-  </si>
-  <si>
-    <t>PSY-Frame Multi-Threader</t>
-  </si>
-  <si>
-    <t>Graydle Slime Jr.</t>
-  </si>
-  <si>
-    <t>Aromaseraphy Angelica</t>
-  </si>
-  <si>
-    <t>Dokidoki</t>
-  </si>
-  <si>
-    <t>Torque Tune Gear</t>
-  </si>
-  <si>
-    <t>Pandora's Treasure Box</t>
-  </si>
-  <si>
-    <t>Fairy Tail - Talia</t>
-  </si>
-  <si>
-    <t>Cyber Angel Vishnu</t>
-  </si>
-  <si>
-    <t>Sauravus, the Crowned Ancient Sage</t>
-  </si>
-  <si>
-    <t>Starve Venom Fusion Dragon</t>
-  </si>
-  <si>
-    <t>Fullmetalfoes Alkahest</t>
-  </si>
-  <si>
-    <t>Metalfoes Mythriel</t>
-  </si>
-  <si>
-    <t>Blazing Meteor Black Dragon</t>
-  </si>
-  <si>
-    <t>Superheavy Samurai Ninja Sarutobi</t>
-  </si>
-  <si>
-    <t>Flower Cardian - Inoshikacho</t>
-  </si>
-  <si>
-    <t>Crystron Quandum</t>
-  </si>
-  <si>
-    <t>Crystron Ametrix</t>
-  </si>
-  <si>
-    <t>Crystron Phoenixion</t>
-  </si>
-  <si>
-    <t>Aromaseraphy Rosemary</t>
-  </si>
-  <si>
-    <t>Wangtianhou, Origin of the Yang Zing</t>
-  </si>
-  <si>
-    <t>Dark Requiem Xyz Dragon</t>
-  </si>
-  <si>
-    <t>Super Chemical Beast Methane Hyd</t>
-  </si>
-  <si>
-    <t>Tellarknight Vatlamyus</t>
-  </si>
-  <si>
-    <t>Treatoad</t>
-  </si>
-  <si>
-    <t>Amazing Pendulum</t>
-  </si>
-  <si>
-    <t>Rank-Up-Magic Launch of The Phantom Knights</t>
-  </si>
-  <si>
-    <t>Hanazumi</t>
-  </si>
-  <si>
-    <t>Chokoikoi</t>
-  </si>
-  <si>
-    <t>Krystal Potential</t>
-  </si>
-  <si>
-    <t>Fullmetalfoes Fusion</t>
-  </si>
-  <si>
-    <t>Spark Field</t>
-  </si>
-  <si>
-    <t>Red-Eyes Insight</t>
-  </si>
-  <si>
-    <t>Igknight Unite</t>
-  </si>
-  <si>
-    <t>Genesis Tellarknight</t>
-  </si>
-  <si>
-    <t>"A" Cell Recomposition Device</t>
-  </si>
-  <si>
-    <t>Fairy's Blessing</t>
-  </si>
-  <si>
-    <t>Pot of Avidity</t>
-  </si>
-  <si>
-    <t>Quarantine</t>
-  </si>
-  <si>
-    <t>King's Synchro</t>
-  </si>
-  <si>
-    <t>Double Cipher</t>
-  </si>
-  <si>
-    <t>Cipher Bit</t>
-  </si>
-  <si>
-    <t>Ikasma Gohatto</t>
-  </si>
-  <si>
-    <t>Crystron Entry</t>
-  </si>
-  <si>
-    <t>Crystron Impact</t>
-  </si>
-  <si>
-    <t>Burn Out</t>
-  </si>
-  <si>
-    <t>PSY-Frame Accelerator</t>
-  </si>
-  <si>
-    <t>Graydle Combat</t>
-  </si>
-  <si>
-    <t>Qliphort Down</t>
-  </si>
-  <si>
-    <t>Nine Branches of the Yang Zing</t>
-  </si>
-  <si>
-    <t>Dimensional Boundary</t>
-  </si>
-  <si>
-    <t>Summon Gate</t>
-  </si>
-  <si>
-    <t>Present Card</t>
-  </si>
-  <si>
     <t>Pendulum Domination Structure Deck</t>
   </si>
   <si>
@@ -648,12 +404,6 @@
     <t>Booster SP: Fusion Enforcers</t>
   </si>
   <si>
-    <t>Predator Plant Sundew Kingii</t>
-  </si>
-  <si>
-    <t>Predator Plant Chimera Rafflesia</t>
-  </si>
-  <si>
     <t>Greedy Venom Fusion Dragon</t>
   </si>
   <si>
@@ -690,34 +440,58 @@
     <t>Esprit Bird Token</t>
   </si>
   <si>
-    <t>Space Dragster</t>
-  </si>
-  <si>
-    <t>Charming Resort Staff</t>
-  </si>
-  <si>
-    <t>SPYRAL Master Plan</t>
-  </si>
-  <si>
-    <t>SPYRAL Resort</t>
-  </si>
-  <si>
-    <t>Vermillion Dragon Mech</t>
-  </si>
-  <si>
-    <t>Subterror Nemesis Archer</t>
-  </si>
-  <si>
-    <t>Subterror Behemoth Stygokraken</t>
-  </si>
-  <si>
-    <t>Subterror Behemoth Ultramafus</t>
-  </si>
-  <si>
-    <t>Subterror Behemoth Burrowing</t>
-  </si>
-  <si>
-    <t>SPYRAL MISSION - Assault</t>
+    <t>Predaplant Sarraceniant</t>
+  </si>
+  <si>
+    <t>Predaplant Drosophyllum Hydra</t>
+  </si>
+  <si>
+    <t>Predaplant Pteropenthes</t>
+  </si>
+  <si>
+    <t>Predaplant Spino Dionaea</t>
+  </si>
+  <si>
+    <t>Predaplant Sundew Kingii</t>
+  </si>
+  <si>
+    <t>Predaplant Chimera Rafflesia</t>
+  </si>
+  <si>
+    <t>Predator Graft</t>
+  </si>
+  <si>
+    <t>Predator Planet</t>
+  </si>
+  <si>
+    <t>Fluffal Octo</t>
+  </si>
+  <si>
+    <t>Fluffal Penguin</t>
+  </si>
+  <si>
+    <t>Caligula the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Cocytus the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Purgatorio the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Magallanica the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Merkabah the Eidolon Beast</t>
+  </si>
+  <si>
+    <t>Reckless Magic Circle</t>
+  </si>
+  <si>
+    <t>Scripture of Law</t>
+  </si>
+  <si>
+    <t>Magical Name - "To Mega Therion"</t>
   </si>
 </sst>
 </file>
@@ -799,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -809,8 +583,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,10 +898,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1140,40 +912,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.23046875" customWidth="1"/>
+    <col min="1" max="1" width="29.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3">
-        <v>42678</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="10">
-        <v>100910000</v>
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2">
+        <v>100406001</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>92092092</v>
+        <v>53819028</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1181,16 +954,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="10">
-        <v>100910081</v>
+        <v>141</v>
+      </c>
+      <c r="B3">
+        <v>100406002</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>66698383</v>
+        <v>99913726</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1198,16 +971,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="10">
-        <v>100910082</v>
+        <v>142</v>
+      </c>
+      <c r="B4">
+        <v>100406003</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>39581190</v>
+        <v>26308721</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1215,16 +988,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="10">
-        <v>100910083</v>
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>100406004</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>65976795</v>
+        <v>52792430</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1232,16 +1005,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="10">
-        <v>100910084</v>
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>100406005</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>92970404</v>
+        <v>89181134</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1249,50 +1022,50 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="10">
-        <v>100910085</v>
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>100406009</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>28369508</v>
+        <v>25586143</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="10">
-        <v>100910086</v>
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>100406010</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>64753157</v>
+        <v>51570882</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="10">
-        <v>100910087</v>
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>100406011</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>91258852</v>
+        <v>88069597</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1300,33 +1073,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="10">
-        <v>100910088</v>
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>100406012</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>27642961</v>
+        <v>14463695</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="10">
-        <v>100910089</v>
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>100406013</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>54631665</v>
+        <v>51858200</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1334,402 +1107,257 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>148</v>
+      </c>
+      <c r="B12">
+        <v>100406014</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>87246309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>100406015</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>13241004</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>100406020</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>40636712</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>100406026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>86120751</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>100406027</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13529466</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>100406028</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>49513164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="B18">
+        <v>100406029</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>85908279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="B19">
+        <v>100406030</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>12307878</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>100406031</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>48791583</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="B21">
+        <v>100406032</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>75286621</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="B22">
+        <v>100406033</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>11270236</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="B23">
+        <v>100406034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>47679935</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>100406035</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>74063034</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="B25">
+        <v>100406036</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>458748</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>125</v>
+        <v>157</v>
+      </c>
+      <c r="B26">
+        <v>100406100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>47457347</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1739,524 +1367,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="1.3828125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>100406001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>100406002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>100406003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>100406004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6">
-        <v>100406005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>100406006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>100406007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>100406008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10">
-        <v>100406009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11">
-        <v>100406010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12">
-        <v>100406011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>100406012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>100406013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>100406015</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>100406016</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>100406017</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>100406019</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19">
-        <v>100406020</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>100406021</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>100406022</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>100406023</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>100406024</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24">
-        <v>100406026</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>100406027</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26">
-        <v>100406028</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>100406029</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>100406030</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>100406031</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>100406032</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31">
-        <v>100406033</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>100406034</v>
-      </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33">
-        <v>100406035</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>100406036</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>100406037</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>100406038</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>100406039</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>100406040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>100406041</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>100406042</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>100406043</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B42">
-        <v>100406044</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>100406045</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -2530,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2546,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3">
         <v>42755</v>
@@ -2554,77 +1664,77 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
@@ -2707,7 +1817,7 @@
         <v>45667991</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2715,7 +1825,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -2724,7 +1834,7 @@
         <v>81055000</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -2732,7 +1842,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -2741,7 +1851,7 @@
         <v>17540705</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -2749,7 +1859,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -2758,7 +1868,7 @@
         <v>44944304</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -2775,7 +1885,7 @@
         <v>70939418</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -2792,7 +1902,7 @@
         <v>17328157</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2809,7 +1919,7 @@
         <v>43722862</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -2826,7 +1936,7 @@
         <v>70117860</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -2834,7 +1944,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -2843,7 +1953,7 @@
         <v>6205579</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -2851,7 +1961,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2860,7 +1970,7 @@
         <v>42600274</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -2877,7 +1987,7 @@
         <v>79094383</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -2885,7 +1995,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -2894,7 +2004,7 @@
         <v>5489987</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -2902,7 +2012,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2911,7 +2021,7 @@
         <v>42878636</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -2919,7 +2029,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -2928,7 +2038,7 @@
         <v>78872731</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -2936,7 +2046,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -2945,7 +2055,7 @@
         <v>4367330</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2953,7 +2063,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -2962,7 +2072,7 @@
         <v>31755044</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -2970,7 +2080,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -2979,7 +2089,7 @@
         <v>77150143</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -2987,7 +2097,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2996,7 +2106,7 @@
         <v>4145852</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -3004,7 +2114,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -3013,7 +2123,7 @@
         <v>30539496</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -3021,7 +2131,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -3030,7 +2140,7 @@
         <v>66938505</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -3038,7 +2148,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -3047,7 +2157,7 @@
         <v>3422200</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -3055,7 +2165,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -3064,7 +2174,7 @@
         <v>39817919</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -3072,7 +2182,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -3081,7 +2191,7 @@
         <v>66815913</v>
       </c>
       <c r="D34" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -3089,7 +2199,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3098,7 +2208,7 @@
         <v>92200612</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3106,7 +2216,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -3115,7 +2225,7 @@
         <v>38695361</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -3123,7 +2233,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3132,7 +2242,7 @@
         <v>65193366</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -3140,7 +2250,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3149,7 +2259,7 @@
         <v>91588074</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -3157,7 +2267,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3166,7 +2276,7 @@
         <v>38572779</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -3174,7 +2284,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3183,7 +2293,7 @@
         <v>64977888</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -3191,7 +2301,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3200,7 +2310,7 @@
         <v>90365482</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3208,7 +2318,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3217,7 +2327,7 @@
         <v>27750191</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -3225,7 +2335,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3234,7 +2344,7 @@
         <v>63845230</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -3242,7 +2352,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3251,7 +2361,7 @@
         <v>90243945</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -3259,7 +2369,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -3268,7 +2378,7 @@
         <v>26638543</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
@@ -3276,7 +2386,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3285,7 +2395,7 @@
         <v>52022648</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
@@ -3293,7 +2403,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3302,7 +2412,7 @@
         <v>99427357</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -3310,7 +2420,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -3319,7 +2429,7 @@
         <v>25415052</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -3327,7 +2437,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -3336,7 +2446,7 @@
         <v>52900000</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -3353,7 +2463,7 @@
         <v>88305705</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -3361,7 +2471,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3370,7 +2480,7 @@
         <v>25793414</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3378,7 +2488,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -3387,7 +2497,7 @@
         <v>51788412</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -3395,7 +2505,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -3404,7 +2514,7 @@
         <v>87182127</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -3421,7 +2531,7 @@
         <v>14577226</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -3429,7 +2539,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -3438,7 +2548,7 @@
         <v>50065971</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -3446,7 +2556,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -3455,7 +2565,7 @@
         <v>84760579</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -3463,7 +2573,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -3472,7 +2582,7 @@
         <v>13455674</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -3480,7 +2590,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -3489,7 +2599,7 @@
         <v>59843383</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -3497,7 +2607,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3506,7 +2616,7 @@
         <v>86238081</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -3523,7 +2633,7 @@
         <v>12632096</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -3531,7 +2641,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -3540,7 +2650,7 @@
         <v>49121795</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -3548,7 +2658,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -3557,7 +2667,7 @@
         <v>85115440</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -3565,7 +2675,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -3574,7 +2684,7 @@
         <v>11510448</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -3582,7 +2692,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -3591,7 +2701,7 @@
         <v>48905153</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -3599,7 +2709,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -3608,7 +2718,7 @@
         <v>74393852</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -3616,7 +2726,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -3625,7 +2735,7 @@
         <v>11398951</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -3642,7 +2752,7 @@
         <v>47882565</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -3650,7 +2760,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -3659,7 +2769,7 @@
         <v>73271204</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -3667,7 +2777,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -3676,7 +2786,7 @@
         <v>73055622</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -3684,7 +2794,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -3693,7 +2803,7 @@
         <v>9553721</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -3701,7 +2811,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -3710,7 +2820,7 @@
         <v>45948430</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -3718,7 +2828,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -3727,7 +2837,7 @@
         <v>72332074</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -3735,7 +2845,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -3744,7 +2854,7 @@
         <v>8321183</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3752,7 +2862,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -3761,7 +2871,7 @@
         <v>35726888</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -3769,7 +2879,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -3778,7 +2888,7 @@
         <v>11110587</v>
       </c>
       <c r="D75" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -3786,7 +2896,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -3795,7 +2905,7 @@
         <v>48605591</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -3803,7 +2913,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -3812,7 +2922,7 @@
         <v>74003290</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -3829,7 +2939,7 @@
         <v>98905</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -3837,7 +2947,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -3846,7 +2956,7 @@
         <v>47482043</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -3854,7 +2964,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -3863,7 +2973,7 @@
         <v>276357</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -3871,7 +2981,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -3880,7 +2990,7 @@
         <v>32360466</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
@@ -3888,7 +2998,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -3897,7 +3007,7 @@
         <v>78765160</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -3905,7 +3015,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -3914,7 +3024,7 @@
         <v>31548814</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -3922,7 +3032,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -3931,7 +3041,7 @@
         <v>78942513</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -3939,7 +3049,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -3948,7 +3058,7 @@
         <v>4931121</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -3956,7 +3066,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -3965,7 +3075,7 @@
         <v>30426226</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -3973,7 +3083,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
@@ -3982,7 +3092,7 @@
         <v>67820935</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -3990,7 +3100,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
@@ -3999,7 +3109,7 @@
         <v>675319</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -4007,7 +3117,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
@@ -4016,7 +3126,7 @@
         <v>73881652</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -4024,7 +3134,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
@@ -4033,7 +3143,7 @@
         <v>25415053</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>

--- a/documentation/ygopro id sheet.xlsx
+++ b/documentation/ygopro id sheet.xlsx
@@ -912,10 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="B2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -924,18 +924,18 @@
     <col min="2" max="2" width="26.61328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.3828125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -951,8 +951,11 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>100406001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -968,8 +971,11 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>100406002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -985,8 +991,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>100406003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -1002,8 +1011,11 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>100406004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1019,8 +1031,11 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>100406005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -1036,8 +1051,11 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>100406009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -1053,8 +1071,11 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>100406010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1070,8 +1091,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>100406011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1087,8 +1111,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>100406012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -1104,8 +1131,11 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>100406013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -1121,8 +1151,11 @@
       <c r="E12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100406014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -1138,8 +1171,11 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>100406015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -1155,8 +1191,11 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>100406020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1172,8 +1211,11 @@
       <c r="E15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>100406026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -1189,8 +1231,11 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>100406027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -1206,8 +1251,11 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>100406028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -1223,8 +1271,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>100406029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -1240,8 +1291,11 @@
       <c r="E19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>100406030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -1257,8 +1311,11 @@
       <c r="E20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>100406031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -1274,8 +1331,11 @@
       <c r="E21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>100406032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -1291,8 +1351,11 @@
       <c r="E22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>100406033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -1308,8 +1371,11 @@
       <c r="E23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>100406034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -1325,8 +1391,11 @@
       <c r="E24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>100406035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -1342,8 +1411,11 @@
       <c r="E25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>100406036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -1358,6 +1430,9 @@
       </c>
       <c r="E26" t="s">
         <v>21</v>
+      </c>
+      <c r="F26">
+        <v>100406100</v>
       </c>
     </row>
   </sheetData>
